--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25150" windowHeight="12740"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>主键</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>lang_round_end</t>
+  </si>
+  <si>
+    <t>combination_rule</t>
+  </si>
+  <si>
+    <t>需要己方场上有此流派技能N个不同的棋子触发，效果叠加。</t>
+  </si>
+  <si>
+    <t>lang_combination_rule</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -170,9 +179,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -191,12 +200,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -205,22 +268,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,44 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -280,45 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -333,6 +334,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -343,61 +352,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,121 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,15 +543,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,15 +557,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,11 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,17 +617,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,10 +1113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="4"/>
@@ -1324,6 +1333,23 @@
       </c>
       <c r="E12" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1350,10 +1376,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1364,10 +1390,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1378,27 +1404,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>主键</t>
   </si>
@@ -141,6 +141,42 @@
   </si>
   <si>
     <t>lang_combination_rule</t>
+  </si>
+  <si>
+    <t>MenuButton_setting</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>MenuButton_mail</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>MenuButton_store</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>MenuButton_battlepass</t>
+  </si>
+  <si>
+    <t>战令</t>
+  </si>
+  <si>
+    <t>MenuButton_draw</t>
+  </si>
+  <si>
+    <t>抽奖</t>
+  </si>
+  <si>
+    <t>MenuButton_handbook</t>
+  </si>
+  <si>
+    <t>图鉴</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -179,9 +215,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -213,14 +249,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -230,75 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +310,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -320,8 +340,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,14 +378,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -352,25 +388,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,7 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,31 +544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,109 +568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,21 +579,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,26 +599,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,16 +624,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -638,8 +644,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,145 +685,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,18 +1149,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D14" sqref="D14:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="55.0833333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.25" style="1" customWidth="1"/>
     <col min="6" max="16330" width="16.9166666666667" style="1" customWidth="1"/>
     <col min="16331" max="16331" width="16.9166666666667" style="1"/>
@@ -1350,6 +1386,114 @@
       </c>
       <c r="E13" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" ref="E14:E19" si="0">CONCATENATE("lang_",A14)</f>
+        <v>lang_MenuButton_setting</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_MenuButton_mail</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_MenuButton_store</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_MenuButton_battlepass</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_MenuButton_draw</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_MenuButton_handbook</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1520,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1390,10 +1534,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1404,27 +1548,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$275</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$273</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>主键</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>图鉴</t>
+  </si>
+  <si>
+    <t>TopBarRound</t>
+  </si>
+  <si>
+    <t>第{s:round}回合</t>
+  </si>
+  <si>
+    <t>TopBarDifficulty</t>
+  </si>
+  <si>
+    <t>游戏难度:{s:difficulty}</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -216,8 +228,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -236,28 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,6 +262,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -279,6 +315,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -296,7 +340,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,44 +361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,13 +369,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -371,11 +377,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -388,31 +400,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,151 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,15 +609,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -625,7 +628,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,15 +673,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,31 +691,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,10 +1161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="4"/>
@@ -1402,7 +1414,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" ref="E14:E19" si="0">CONCATENATE("lang_",A14)</f>
+        <f t="shared" ref="E14:E21" si="0">CONCATENATE("lang_",A14)</f>
         <v>lang_MenuButton_setting</v>
       </c>
     </row>
@@ -1494,6 +1506,42 @@
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_handbook</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_TopBarRound</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_TopBarDifficulty</v>
       </c>
     </row>
   </sheetData>
@@ -1520,10 +1568,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1534,10 +1582,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1548,27 +1596,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>主键</t>
   </si>
@@ -189,6 +189,24 @@
   </si>
   <si>
     <t>游戏难度:{s:difficulty}</t>
+  </si>
+  <si>
+    <t>LevelChallenge</t>
+  </si>
+  <si>
+    <t>关卡挑战</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>bagshop</t>
+  </si>
+  <si>
+    <t>背包商店</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -226,10 +244,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -248,9 +266,67 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +347,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -278,32 +362,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,47 +387,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,20 +408,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -400,31 +418,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,13 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,121 +568,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,6 +609,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -628,40 +679,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,10 +1179,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="4"/>
@@ -1414,7 +1432,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" ref="E14:E21" si="0">CONCATENATE("lang_",A14)</f>
+        <f t="shared" ref="E14:E24" si="0">CONCATENATE("lang_",A14)</f>
         <v>lang_MenuButton_setting</v>
       </c>
     </row>
@@ -1542,6 +1560,60 @@
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_TopBarDifficulty</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_LevelChallenge</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_tech</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_bagshop</v>
       </c>
     </row>
   </sheetData>
@@ -1568,10 +1640,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1582,10 +1654,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1596,27 +1668,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$273</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$277</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
   <si>
     <t>主键</t>
   </si>
@@ -177,6 +177,30 @@
   </si>
   <si>
     <t>图鉴</t>
+  </si>
+  <si>
+    <t>MenuButton_rank</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>MenuButton_activity</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>MenuButton_record</t>
+  </si>
+  <si>
+    <t>档案</t>
+  </si>
+  <si>
+    <t>MenuButton_bag</t>
+  </si>
+  <si>
+    <t>背包</t>
   </si>
   <si>
     <t>TopBarRound</t>
@@ -273,14 +297,91 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,22 +402,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,78 +420,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,121 +448,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,55 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,9 +638,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,17 +710,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,51 +733,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +751,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,10 +1203,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="4"/>
@@ -1432,7 +1456,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" ref="E14:E24" si="0">CONCATENATE("lang_",A14)</f>
+        <f t="shared" ref="E14:E27" si="0">CONCATENATE("lang_",A14)</f>
         <v>lang_MenuButton_setting</v>
       </c>
     </row>
@@ -1541,7 +1565,7 @@
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_TopBarRound</v>
+        <v>lang_MenuButton_rank</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1559,7 +1583,7 @@
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_TopBarDifficulty</v>
+        <v>lang_MenuButton_activity</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1577,10 +1601,10 @@
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_LevelChallenge</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>lang_MenuButton_record</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>59</v>
       </c>
@@ -1595,7 +1619,7 @@
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_tech</v>
+        <v>lang_MenuButton_bag</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1612,7 +1636,79 @@
         <v>62</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE("lang_",A24)</f>
+        <v>lang_TopBarRound</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>CONCATENATE("lang_",A25)</f>
+        <v>lang_TopBarDifficulty</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>CONCATENATE("lang_",A26)</f>
+        <v>lang_LevelChallenge</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>CONCATENATE("lang_",A27)</f>
+        <v>lang_tech</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>CONCATENATE("lang_",A28)</f>
         <v>lang_bagshop</v>
       </c>
     </row>
@@ -1640,10 +1736,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1654,10 +1750,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1668,27 +1764,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -197,10 +197,10 @@
     <t>档案</t>
   </si>
   <si>
-    <t>MenuButton_bag</t>
-  </si>
-  <si>
-    <t>背包</t>
+    <t>MenuButton_storage</t>
+  </si>
+  <si>
+    <t>仓库</t>
   </si>
   <si>
     <t>TopBarRound</t>
@@ -268,10 +268,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -289,22 +289,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,114 +427,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -442,37 +442,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,19 +562,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,121 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,13 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,25 +666,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -691,6 +686,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,17 +723,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,10 +739,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,133 +751,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="4"/>
@@ -1456,7 +1456,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f t="shared" ref="E14:E27" si="0">CONCATENATE("lang_",A14)</f>
+        <f t="shared" ref="E14:E28" si="0">CONCATENATE("lang_",A14)</f>
         <v>lang_MenuButton_setting</v>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_bag</v>
+        <v>lang_MenuButton_storage</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1636,7 +1636,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>CONCATENATE("lang_",A24)</f>
+        <f t="shared" si="0"/>
         <v>lang_TopBarRound</v>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>CONCATENATE("lang_",A25)</f>
+        <f t="shared" si="0"/>
         <v>lang_TopBarDifficulty</v>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
         <v>66</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>CONCATENATE("lang_",A26)</f>
+        <f t="shared" si="0"/>
         <v>lang_LevelChallenge</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         <v>68</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>CONCATENATE("lang_",A27)</f>
+        <f t="shared" si="0"/>
         <v>lang_tech</v>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
         <v>70</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>CONCATENATE("lang_",A28)</f>
+        <f t="shared" si="0"/>
         <v>lang_bagshop</v>
       </c>
     </row>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>主键</t>
   </si>
@@ -80,13 +80,10 @@
     <t>lang_turn</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>食物</t>
-  </si>
-  <si>
-    <t>lang_food</t>
+    <t>soulcrystal</t>
+  </si>
+  <si>
+    <t>魂晶</t>
   </si>
   <si>
     <t>round_start</t>
@@ -268,10 +265,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -286,6 +283,113 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,122 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,6 +417,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -442,19 +439,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,163 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,21 +630,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -662,39 +644,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,7 +667,55 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,10 +736,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,133 +748,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,7 +1203,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="4"/>
@@ -1336,124 +1333,125 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
+      <c r="E7" s="1" t="str">
+        <f>CONCATENATE("lang_",A7)</f>
+        <v>lang_soulcrystal</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="str">
         <f t="shared" ref="E14:E28" si="0">CONCATENATE("lang_",A14)</f>
@@ -1462,16 +1460,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1480,16 +1478,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1498,16 +1496,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1516,16 +1514,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1534,16 +1532,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1552,16 +1550,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1570,16 +1568,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1588,16 +1586,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1606,16 +1604,16 @@
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
       <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1624,16 +1622,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1642,16 +1640,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1660,16 +1658,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1678,16 +1676,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1696,16 +1694,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1736,10 +1734,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1750,10 +1748,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1764,27 +1762,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,18 +11,21 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$277</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$265</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="229">
   <si>
     <t>主键</t>
   </si>
   <si>
+    <t>模块</t>
+  </si>
+  <si>
     <t>{描述}</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>population</t>
   </si>
   <si>
+    <t>顶部回合栏信息</t>
+  </si>
+  <si>
     <t>人口</t>
   </si>
   <si>
@@ -86,6 +92,18 @@
     <t>魂晶</t>
   </si>
   <si>
+    <t>TopBarRound</t>
+  </si>
+  <si>
+    <t>第{s:round}回合</t>
+  </si>
+  <si>
+    <t>TopBarDifficulty</t>
+  </si>
+  <si>
+    <t>游戏难度:{s:difficulty}</t>
+  </si>
+  <si>
     <t>round_start</t>
   </si>
   <si>
@@ -131,103 +149,532 @@
     <t>lang_round_end</t>
   </si>
   <si>
+    <t>MenuButton_setting</t>
+  </si>
+  <si>
+    <t>菜单导航</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>MenuButton_mail</t>
+  </si>
+  <si>
+    <t>邮件</t>
+  </si>
+  <si>
+    <t>MenuButton_store</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>MenuButton_battlepass</t>
+  </si>
+  <si>
+    <t>战令</t>
+  </si>
+  <si>
+    <t>MenuButton_draw</t>
+  </si>
+  <si>
+    <t>抽奖</t>
+  </si>
+  <si>
+    <t>MenuButton_handbook</t>
+  </si>
+  <si>
+    <t>图鉴</t>
+  </si>
+  <si>
+    <t>MenuButton_rank</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>MenuButton_activity</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>MenuButton_record</t>
+  </si>
+  <si>
+    <t>档案</t>
+  </si>
+  <si>
+    <t>MenuButton_storage</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t>LevelChallenge</t>
+  </si>
+  <si>
+    <t>左下角怪物挑战</t>
+  </si>
+  <si>
+    <t>关卡挑战</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>bagshop</t>
+  </si>
+  <si>
+    <t>背包商店</t>
+  </si>
+  <si>
+    <t>HUD_Shop_Home</t>
+  </si>
+  <si>
+    <t>商城</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>HUD_Shop_Props</t>
+  </si>
+  <si>
+    <t>道具</t>
+  </si>
+  <si>
+    <t>HUD_Shop_Resource</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>HUD_Shop_Star</t>
+  </si>
+  <si>
+    <t>星光商店</t>
+  </si>
+  <si>
+    <t>HUD_Shop_Chest</t>
+  </si>
+  <si>
+    <t>宝瓶</t>
+  </si>
+  <si>
+    <t>HUD_Shop_HotSale</t>
+  </si>
+  <si>
+    <t>热卖</t>
+  </si>
+  <si>
+    <t>HUD_Shop_DailyLimitedSale</t>
+  </si>
+  <si>
+    <t>每日限购</t>
+  </si>
+  <si>
+    <t>HUD_Shop_LimitedSale</t>
+  </si>
+  <si>
+    <t>限时购买</t>
+  </si>
+  <si>
+    <t>LimitedSaleTime</t>
+  </si>
+  <si>
+    <t>限时</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>免费</t>
+  </si>
+  <si>
+    <t>Shop_Buy_With_Money</t>
+  </si>
+  <si>
+    <t>￥{s:price}</t>
+  </si>
+  <si>
+    <t>Error_Star_Not_Enough</t>
+  </si>
+  <si>
+    <t>星辉不足</t>
+  </si>
+  <si>
+    <t>DialogBox_Buy_Success</t>
+  </si>
+  <si>
+    <t>购买成功</t>
+  </si>
+  <si>
+    <t>DialogBox_Buy_Fail</t>
+  </si>
+  <si>
+    <t>购买失败</t>
+  </si>
+  <si>
+    <t>DialogBox_Get_Success</t>
+  </si>
+  <si>
+    <t>领取成功</t>
+  </si>
+  <si>
+    <t>DialogBox_Get_Fail</t>
+  </si>
+  <si>
+    <t>领取失败</t>
+  </si>
+  <si>
+    <t>Payment_PleaseWait</t>
+  </si>
+  <si>
+    <t>请稍候，将在外部浏览器打开支付网页...</t>
+  </si>
+  <si>
+    <t>Payment_WebPageOpened</t>
+  </si>
+  <si>
+    <t>已在外部浏览器打开支付网页</t>
+  </si>
+  <si>
+    <t>Payment_Create_Fail</t>
+  </si>
+  <si>
+    <t>创建订单失败</t>
+  </si>
+  <si>
+    <t>Shop_Goods_1</t>
+  </si>
+  <si>
+    <t>测试大礼包</t>
+  </si>
+  <si>
+    <t>Shop_Goods_line_first</t>
+  </si>
+  <si>
+    <t>购买将会获得</t>
+  </si>
+  <si>
+    <t>Shop_Goods_line</t>
+  </si>
+  <si>
+    <t>※ [item_name] × [item_num]</t>
+  </si>
+  <si>
+    <t>Shop_Goods_limit_0</t>
+  </si>
+  <si>
+    <t>永久限购{d:current}/{d:total}</t>
+  </si>
+  <si>
+    <t>Shop_Goods_limit_1</t>
+  </si>
+  <si>
+    <t>每日限购{d:current}/{d:total}</t>
+  </si>
+  <si>
+    <t>Shop_Goods_limit_2</t>
+  </si>
+  <si>
+    <t>每周限购{d:current}/{d:total}</t>
+  </si>
+  <si>
+    <t>Shop_Goods_limit_3</t>
+  </si>
+  <si>
+    <t>每月限购{d:current}/{d:total}</t>
+  </si>
+  <si>
+    <t>Shop_Goods_limit_4</t>
+  </si>
+  <si>
+    <t>每年限购{d:current}/{d:total}</t>
+  </si>
+  <si>
+    <t>Shop_Goods_limit_5</t>
+  </si>
+  <si>
+    <t>每小时限购{d:current}/{d:total}</t>
+  </si>
+  <si>
+    <t>Shop_Goods_limit_6</t>
+  </si>
+  <si>
+    <t>赛季限购{d:current}/{d:total}</t>
+  </si>
+  <si>
+    <t>CDK</t>
+  </si>
+  <si>
+    <t>使用兑换码</t>
+  </si>
+  <si>
+    <t>CDKResult</t>
+  </si>
+  <si>
+    <t>兑换物品</t>
+  </si>
+  <si>
+    <t>ExchangeProductResult</t>
+  </si>
+  <si>
+    <t>符石碎片购买</t>
+  </si>
+  <si>
     <t>combination_rule</t>
   </si>
   <si>
+    <t>技能</t>
+  </si>
+  <si>
     <t>需要己方场上有此流派技能N个不同的棋子触发，效果叠加。</t>
   </si>
   <si>
-    <t>lang_combination_rule</t>
-  </si>
-  <si>
-    <t>MenuButton_setting</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>MenuButton_mail</t>
-  </si>
-  <si>
-    <t>邮件</t>
-  </si>
-  <si>
-    <t>MenuButton_store</t>
-  </si>
-  <si>
-    <t>商店</t>
-  </si>
-  <si>
-    <t>MenuButton_battlepass</t>
-  </si>
-  <si>
-    <t>战令</t>
-  </si>
-  <si>
-    <t>MenuButton_draw</t>
-  </si>
-  <si>
-    <t>抽奖</t>
-  </si>
-  <si>
-    <t>MenuButton_handbook</t>
-  </si>
-  <si>
-    <t>图鉴</t>
-  </si>
-  <si>
-    <t>MenuButton_rank</t>
-  </si>
-  <si>
-    <t>排行榜</t>
-  </si>
-  <si>
-    <t>MenuButton_activity</t>
-  </si>
-  <si>
-    <t>活动</t>
-  </si>
-  <si>
-    <t>MenuButton_record</t>
-  </si>
-  <si>
-    <t>档案</t>
-  </si>
-  <si>
-    <t>MenuButton_storage</t>
-  </si>
-  <si>
-    <t>仓库</t>
-  </si>
-  <si>
-    <t>TopBarRound</t>
-  </si>
-  <si>
-    <t>第{s:round}回合</t>
-  </si>
-  <si>
-    <t>TopBarDifficulty</t>
-  </si>
-  <si>
-    <t>游戏难度:{s:difficulty}</t>
-  </si>
-  <si>
-    <t>LevelChallenge</t>
-  </si>
-  <si>
-    <t>关卡挑战</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>科技</t>
-  </si>
-  <si>
-    <t>bagshop</t>
-  </si>
-  <si>
-    <t>背包商店</t>
+    <t>DialogBox_Yes</t>
+  </si>
+  <si>
+    <t>弹窗</t>
+  </si>
+  <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>DialogBox_No</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>DialogBox_Rcv</t>
+  </si>
+  <si>
+    <t>领取</t>
+  </si>
+  <si>
+    <t>DialogBox_Not_Again</t>
+  </si>
+  <si>
+    <t>下次不再提醒</t>
+  </si>
+  <si>
+    <t>ClickBlankClose</t>
+  </si>
+  <si>
+    <t>点击任意空白处或按下ESC关闭</t>
+  </si>
+  <si>
+    <t>DialogBox_Buy</t>
+  </si>
+  <si>
+    <t>购买</t>
+  </si>
+  <si>
+    <t>DialogBox_GotoOpen</t>
+  </si>
+  <si>
+    <t>去打开</t>
+  </si>
+  <si>
+    <t>DialogBox_PleaseWait</t>
+  </si>
+  <si>
+    <t>请稍候...</t>
+  </si>
+  <si>
+    <t>TimerTitle</t>
+  </si>
+  <si>
+    <t>英雄选择界面</t>
+  </si>
+  <si>
+    <t>倒计时</t>
+  </si>
+  <si>
+    <t>Select_Difficulties</t>
+  </si>
+  <si>
+    <t>点击选择难度</t>
+  </si>
+  <si>
+    <t>Help_new_player</t>
+  </si>
+  <si>
+    <t>带我通关难度{d:help_dif}，拿SR符石奖励哦</t>
+  </si>
+  <si>
+    <t>CourierSelectionTitle</t>
+  </si>
+  <si>
+    <t>信使选择</t>
+  </si>
+  <si>
+    <t>PlayerNotReady</t>
+  </si>
+  <si>
+    <t>准备中</t>
+  </si>
+  <si>
+    <t>Feedback_Title</t>
+  </si>
+  <si>
+    <t>反馈</t>
+  </si>
+  <si>
+    <t>Feedback_Good</t>
+  </si>
+  <si>
+    <t>好</t>
+  </si>
+  <si>
+    <t>Feedback_Bad</t>
+  </si>
+  <si>
+    <t>坏</t>
+  </si>
+  <si>
+    <t>Feedback_Placeholder</t>
+  </si>
+  <si>
+    <t>每一条反馈我们都会认真阅读，欢迎分享您对我们游戏的任何看法</t>
+  </si>
+  <si>
+    <t>Feedback_Send</t>
+  </si>
+  <si>
+    <t>提交反馈</t>
+  </si>
+  <si>
+    <t>Feedback_Success</t>
+  </si>
+  <si>
+    <t>反馈成功</t>
+  </si>
+  <si>
+    <t>Feedback_Failure</t>
+  </si>
+  <si>
+    <t>反馈失败</t>
+  </si>
+  <si>
+    <t>FishManPublish</t>
+  </si>
+  <si>
+    <t>渔夫游戏出品</t>
+  </si>
+  <si>
+    <t>BugEmail</t>
+  </si>
+  <si>
+    <t>BUG反馈邮箱：imagine@fishmangames.net</t>
+  </si>
+  <si>
+    <t>DiscordLink</t>
+  </si>
+  <si>
+    <t>FishManGames邀请您加入Discord群组</t>
+  </si>
+  <si>
+    <t>Difficult_0</t>
+  </si>
+  <si>
+    <t>0.教学关卡</t>
+  </si>
+  <si>
+    <t>Difficult_0_Description</t>
+  </si>
+  <si>
+    <t>不推荐熟悉塔防游戏的玩家游玩，本模式仅有30回合&lt;br&gt;每回合结束恢复80%的蓝量</t>
+  </si>
+  <si>
+    <t>Difficult_1</t>
+  </si>
+  <si>
+    <t>1.有手就行</t>
+  </si>
+  <si>
+    <t>Difficult_1_Description</t>
+  </si>
+  <si>
+    <t>45回合&lt;br&gt;每回合结束恢复70%的蓝量</t>
+  </si>
+  <si>
+    <t>Difficult_2</t>
+  </si>
+  <si>
+    <t>2.清风微拂</t>
+  </si>
+  <si>
+    <t>Difficult_2_Description</t>
+  </si>
+  <si>
+    <t>45回合&lt;br&gt;每回合结束恢复60%的蓝量&lt;br&gt;解锁普通怪物的技能</t>
+  </si>
+  <si>
+    <t>Difficult_3</t>
+  </si>
+  <si>
+    <t>3.炉火纯青</t>
+  </si>
+  <si>
+    <t>Difficult_3_Description</t>
+  </si>
+  <si>
+    <t>45回合&lt;br&gt;每回合结束恢复50%的蓝量&lt;br&gt;解锁普通怪物的技能&lt;br&gt;解锁挑战怪物技能</t>
+  </si>
+  <si>
+    <t>Difficult_4</t>
+  </si>
+  <si>
+    <t>4.登峰造极</t>
+  </si>
+  <si>
+    <t>Difficult_4_Description</t>
+  </si>
+  <si>
+    <t>45回合&lt;br&gt;每回合结束恢复40%的蓝量&lt;br&gt;解锁挑战怪物技能&lt;br&gt;解锁普通怪物的技能&lt;br&gt;解锁Boss技能&lt;br&gt;解锁通关掉落符石（每日首次双倍）</t>
+  </si>
+  <si>
+    <t>Difficult_5</t>
+  </si>
+  <si>
+    <t>5.独孤求败</t>
+  </si>
+  <si>
+    <t>Difficult_5_Description</t>
+  </si>
+  <si>
+    <t>45回合&lt;br&gt;每回合结束恢复30%的蓝量&lt;br&gt;解锁挑战怪物技能&lt;br&gt;解锁普通怪物的技能&lt;br&gt;解锁Boss技能&lt;br&gt;解锁通关掉落符石（每日首次双倍）&lt;br&gt;每回合对伤害种类有要求</t>
+  </si>
+  <si>
+    <t>Difficult_6</t>
+  </si>
+  <si>
+    <t>6.血麻异变</t>
+  </si>
+  <si>
+    <t>Difficult_6_Description</t>
+  </si>
+  <si>
+    <t>45回合&lt;br&gt;每回合结束恢复30%的蓝量&lt;br&gt;解锁挑战怪物技能&lt;br&gt;解锁普通怪物的技能&lt;br&gt;解锁Boss技能&lt;br&gt;解锁通关掉落符石（每日首次双倍）&lt;br&gt;每回合对伤害种类有要求&lt;br&gt;普通怪100%获得变异技能</t>
+  </si>
+  <si>
+    <t>Difficult_999</t>
+  </si>
+  <si>
+    <t>深渊炼狱</t>
+  </si>
+  <si>
+    <t>Difficult_999_Description</t>
+  </si>
+  <si>
+    <t>正常45回合，之后有额外的无尽回合，看看你的极限在哪里&lt;br&gt;每回合结束恢复20%的蓝量&lt;br&gt;解锁符石碎片掉落（每日首次通关双倍）</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1200,25 +1647,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69:F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="28.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="55.0833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="1" customWidth="1"/>
-    <col min="6" max="16330" width="16.9166666666667" style="1" customWidth="1"/>
-    <col min="16331" max="16331" width="16.9166666666667" style="1"/>
-    <col min="16332" max="16384" width="8.66666666666667" style="1"/>
+    <col min="1" max="1" width="34" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="27.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5833333333333" style="1" customWidth="1"/>
+    <col min="7" max="16331" width="16.9166666666667" style="1" customWidth="1"/>
+    <col min="16332" max="16332" width="16.9166666666667" style="1"/>
+    <col min="16333" max="16384" width="8.66666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1226,20 +1673,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1251,133 +1698,159 @@
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="str">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <f>CONCATENATE("lang_",A7)</f>
         <v>lang_soulcrystal</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>CONCATENATE("lang_",A8)</f>
+        <v>lang_TopBarRound</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1" t="str">
+        <f>CONCATENATE("lang_",A9)</f>
+        <v>lang_TopBarDifficulty</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
@@ -1386,15 +1859,18 @@
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1403,15 +1879,18 @@
         <v>32</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
@@ -1420,15 +1899,18 @@
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
@@ -1437,15 +1919,18 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>41</v>
@@ -1453,261 +1938,1796 @@
       <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" ref="E14:E28" si="0">CONCATENATE("lang_",A14)</f>
+      <c r="E14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" ref="F15:F27" si="0">CONCATENATE("lang_",A15)</f>
         <v>lang_MenuButton_setting</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="1" t="str">
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_mail</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="1" t="str">
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_store</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="1" t="str">
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_battlepass</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="1" t="str">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_draw</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1" t="str">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_handbook</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="1" t="str">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_rank</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="1" t="str">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_activity</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="1" t="str">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_record</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="1" t="str">
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_storage</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="1" t="str">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_TopBarRound</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>lang_TopBarDifficulty</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>lang_LevelChallenge</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>lang_LevelChallenge</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="1" t="str">
+        <v>68</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_tech</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="1" t="str">
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_bagshop</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f t="shared" ref="F28:F91" si="1">CONCATENATE("lang_",A28)</f>
+        <v>lang_HUD_Shop_Home</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_HUD_Shop_Props</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_HUD_Shop_Resource</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_HUD_Shop_Star</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_HUD_Shop_Chest</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_HUD_Shop_HotSale</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_HUD_Shop_DailyLimitedSale</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_HUD_Shop_LimitedSale</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_LimitedSaleTime</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Free</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Buy_With_Money</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Error_Star_Not_Enough</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_Buy_Success</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_Buy_Fail</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_Get_Success</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_Get_Fail</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Payment_PleaseWait</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Payment_WebPageOpened</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Payment_Create_Fail</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Goods_1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Goods_line_first</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Goods_line</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Goods_limit_0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Goods_limit_1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Goods_limit_2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Goods_limit_3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Goods_limit_4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Goods_limit_5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Shop_Goods_limit_6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_CDK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_CDKResult</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_ExchangeProductResult</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_combination_rule</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_Yes</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_No</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_Rcv</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_Not_Again</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_ClickBlankClose</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_Buy</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_GotoOpen</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_DialogBox_PleaseWait</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_TimerTitle</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Select_Difficulties</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_Help_new_player</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f>CONCATENATE("lang_",A72)</f>
+        <v>lang_CourierSelectionTitle</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f>CONCATENATE("lang_",A73)</f>
+        <v>lang_PlayerNotReady</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f>CONCATENATE("lang_",A74)</f>
+        <v>lang_Feedback_Title</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f>CONCATENATE("lang_",A75)</f>
+        <v>lang_Feedback_Good</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f>CONCATENATE("lang_",A76)</f>
+        <v>lang_Feedback_Bad</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f>CONCATENATE("lang_",A77)</f>
+        <v>lang_Feedback_Placeholder</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f>CONCATENATE("lang_",A78)</f>
+        <v>lang_Feedback_Send</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f>CONCATENATE("lang_",A79)</f>
+        <v>lang_Feedback_Success</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f>CONCATENATE("lang_",A80)</f>
+        <v>lang_Feedback_Failure</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F81" s="1" t="str">
+        <f>CONCATENATE("lang_",A81)</f>
+        <v>lang_FishManPublish</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <f>CONCATENATE("lang_",A82)</f>
+        <v>lang_BugEmail</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F83" s="1" t="str">
+        <f>CONCATENATE("lang_",A83)</f>
+        <v>lang_DiscordLink</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <f>CONCATENATE("lang_",A84)</f>
+        <v>lang_Difficult_0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F85" s="1" t="str">
+        <f>CONCATENATE("lang_",A85)</f>
+        <v>lang_Difficult_0_Description</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F86" s="1" t="str">
+        <f>CONCATENATE("lang_",A86)</f>
+        <v>lang_Difficult_1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F87" s="1" t="str">
+        <f>CONCATENATE("lang_",A87)</f>
+        <v>lang_Difficult_1_Description</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F88" s="1" t="str">
+        <f>CONCATENATE("lang_",A88)</f>
+        <v>lang_Difficult_2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <f>CONCATENATE("lang_",A89)</f>
+        <v>lang_Difficult_2_Description</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f>CONCATENATE("lang_",A90)</f>
+        <v>lang_Difficult_3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F91" s="1" t="str">
+        <f>CONCATENATE("lang_",A91)</f>
+        <v>lang_Difficult_3_Description</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F92" s="1" t="str">
+        <f>CONCATENATE("lang_",A92)</f>
+        <v>lang_Difficult_4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f>CONCATENATE("lang_",A93)</f>
+        <v>lang_Difficult_4_Description</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f t="shared" ref="F94:F99" si="2">CONCATENATE("lang_",A94)</f>
+        <v>lang_Difficult_5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>lang_Difficult_5_Description</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>lang_Difficult_6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>lang_Difficult_6_Description</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>lang_Difficult_999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>lang_Difficult_999_Description</v>
       </c>
     </row>
   </sheetData>
@@ -1734,58 +3754,58 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$257</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="282">
   <si>
     <t>主键</t>
   </si>
@@ -675,6 +675,165 @@
   </si>
   <si>
     <t>正常45回合，之后有额外的无尽回合，看看你的极限在哪里&lt;br&gt;每回合结束恢复20%的蓝量&lt;br&gt;解锁符石碎片掉落（每日首次通关双倍）</t>
+  </si>
+  <si>
+    <t>P6_Primary_tip</t>
+  </si>
+  <si>
+    <t>单位属性界面</t>
+  </si>
+  <si>
+    <t>英雄的主属性是动态变化的，它总是数值最高的属性</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_Strength_Custom</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>P6_StrengthDetails_Custom</t>
+  </si>
+  <si>
+    <t>= {s:strength_attack_damage}点攻击力</t>
+  </si>
+  <si>
+    <t>P6_StrengthDetails_Custom_Primary</t>
+  </si>
+  <si>
+    <t>= {s:strength_energy_regen}%怒气获取加成（主属性加成）&lt;br&gt;= {s:strength_all_damage}%额外最终伤害（主属性加成）（上限{s:strength_all_damage_max}%）</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_Agility_Custom</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>P6_AgilityDetails_Custom</t>
+  </si>
+  <si>
+    <t>= {s:agility_attack_speed}攻击速度</t>
+  </si>
+  <si>
+    <t>P6_AgilityDetails_Custom_Primary</t>
+  </si>
+  <si>
+    <t>= {s:agility_max_attack_speed}最大攻击速度（主属性加成）</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_Intellect_Custom</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>P6_IntellectDetails_Custom</t>
+  </si>
+  <si>
+    <t>= {s:intellect_mana}最大魔法值</t>
+  </si>
+  <si>
+    <t>P6_IntellectDetails_Custom_Primary</t>
+  </si>
+  <si>
+    <t>= {s:intellect_cooldown_reduction}%冷却缩减（主属性加成）</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_TotalDamagePercent</t>
+  </si>
+  <si>
+    <t>&lt;font color='#EEEEEE'&gt;额外全伤害：&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_PhysicalDamagePercent</t>
+  </si>
+  <si>
+    <t>&lt;font color='#ae2f28'&gt;额外物理伤害：&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_MagicalDamagePercent</t>
+  </si>
+  <si>
+    <t>&lt;font color='#5b93d1'&gt;额外魔法伤害：&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_PureDamagePercent</t>
+  </si>
+  <si>
+    <t>&lt;font color='#d8ae53'&gt;额外纯粹伤害：&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_PhysicalArmor_Custom</t>
+  </si>
+  <si>
+    <t>物理防御：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_MagicalArmor_Custom</t>
+  </si>
+  <si>
+    <t>魔法防御：</t>
+  </si>
+  <si>
+    <t>Unit_Stats_Label_Outgoing</t>
+  </si>
+  <si>
+    <t>输出</t>
+  </si>
+  <si>
+    <t>Unit_Stats_Label_Other</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_IgnorePhysicalArmorPercent</t>
+  </si>
+  <si>
+    <t>物理防御穿透：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_IgnoreMagicalArmorPercent</t>
+  </si>
+  <si>
+    <t>魔法防御穿透：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_CooldownReduction</t>
+  </si>
+  <si>
+    <t>冷却缩减：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_EnergyRegen</t>
+  </si>
+  <si>
+    <t>怒气恢复加成：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_AttackCrit</t>
+  </si>
+  <si>
+    <t>物理暴击概率：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_AttackCritDamage</t>
+  </si>
+  <si>
+    <t>物理暴击伤害：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_SpellCrit</t>
+  </si>
+  <si>
+    <t>技能暴击概率：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_SpellCritDamage</t>
+  </si>
+  <si>
+    <t>技能暴击伤害：</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1325,9 +1484,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1647,18 +1807,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69:F71"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102:E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="34" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="27.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="1" customWidth="1"/>
+    <col min="3" max="4" width="27.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37" style="2" customWidth="1"/>
     <col min="6" max="6" width="32.5833333333333" style="1" customWidth="1"/>
     <col min="7" max="16331" width="16.9166666666667" style="1" customWidth="1"/>
     <col min="16332" max="16332" width="16.9166666666667" style="1"/>
@@ -1672,13 +1832,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1689,13 +1849,13 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1709,13 +1869,13 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1729,13 +1889,13 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1749,13 +1909,13 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1769,13 +1929,13 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1789,13 +1949,13 @@
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="str">
@@ -1810,13 +1970,13 @@
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="1" t="str">
@@ -1831,13 +1991,13 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="1" t="str">
@@ -1852,13 +2012,13 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1872,13 +2032,13 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1892,13 +2052,13 @@
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1912,13 +2072,13 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1932,13 +2092,13 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1952,13 +2112,13 @@
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="1" t="str">
@@ -1973,13 +2133,13 @@
       <c r="B16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F16" s="1" t="str">
@@ -1994,13 +2154,13 @@
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F17" s="1" t="str">
@@ -2015,13 +2175,13 @@
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="1" t="str">
@@ -2036,13 +2196,13 @@
       <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="1" t="str">
@@ -2057,13 +2217,13 @@
       <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="1" t="str">
@@ -2078,13 +2238,13 @@
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="F21" s="1" t="str">
@@ -2099,13 +2259,13 @@
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F22" s="1" t="str">
@@ -2120,13 +2280,13 @@
       <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="1" t="str">
@@ -2141,13 +2301,13 @@
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F24" s="1" t="str">
@@ -2162,13 +2322,13 @@
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F25" s="1" t="str">
@@ -2183,13 +2343,13 @@
       <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="1" t="str">
@@ -2204,13 +2364,13 @@
       <c r="B27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F27" s="1" t="str">
@@ -2225,13 +2385,13 @@
       <c r="B28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>73</v>
       </c>
       <c r="F28" s="1" t="str">
@@ -2246,13 +2406,13 @@
       <c r="B29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F29" s="1" t="str">
@@ -2267,13 +2427,13 @@
       <c r="B30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F30" s="1" t="str">
@@ -2288,13 +2448,13 @@
       <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="1" t="str">
@@ -2309,13 +2469,13 @@
       <c r="B32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="F32" s="1" t="str">
@@ -2330,13 +2490,13 @@
       <c r="B33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F33" s="1" t="str">
@@ -2351,13 +2511,13 @@
       <c r="B34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="1" t="str">
@@ -2372,13 +2532,13 @@
       <c r="B35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F35" s="1" t="str">
@@ -2393,13 +2553,13 @@
       <c r="B36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F36" s="1" t="str">
@@ -2414,13 +2574,13 @@
       <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>91</v>
       </c>
       <c r="F37" s="1" t="str">
@@ -2435,13 +2595,13 @@
       <c r="B38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F38" s="1" t="str">
@@ -2456,13 +2616,13 @@
       <c r="B39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F39" s="1" t="str">
@@ -2477,13 +2637,13 @@
       <c r="B40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F40" s="1" t="str">
@@ -2498,13 +2658,13 @@
       <c r="B41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F41" s="1" t="str">
@@ -2519,13 +2679,13 @@
       <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F42" s="1" t="str">
@@ -2540,13 +2700,13 @@
       <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="1" t="str">
@@ -2561,13 +2721,13 @@
       <c r="B44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F44" s="1" t="str">
@@ -2582,13 +2742,13 @@
       <c r="B45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>107</v>
       </c>
       <c r="F45" s="1" t="str">
@@ -2603,13 +2763,13 @@
       <c r="B46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>109</v>
       </c>
       <c r="F46" s="1" t="str">
@@ -2624,13 +2784,13 @@
       <c r="B47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F47" s="1" t="str">
@@ -2645,13 +2805,13 @@
       <c r="B48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F48" s="1" t="str">
@@ -2666,13 +2826,13 @@
       <c r="B49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F49" s="1" t="str">
@@ -2687,13 +2847,13 @@
       <c r="B50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F50" s="1" t="str">
@@ -2708,13 +2868,13 @@
       <c r="B51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F51" s="1" t="str">
@@ -2729,13 +2889,13 @@
       <c r="B52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F52" s="1" t="str">
@@ -2750,13 +2910,13 @@
       <c r="B53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>123</v>
       </c>
       <c r="F53" s="1" t="str">
@@ -2771,13 +2931,13 @@
       <c r="B54" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>125</v>
       </c>
       <c r="F54" s="1" t="str">
@@ -2792,13 +2952,13 @@
       <c r="B55" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F55" s="1" t="str">
@@ -2813,13 +2973,13 @@
       <c r="B56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F56" s="1" t="str">
@@ -2834,13 +2994,13 @@
       <c r="B57" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
         <v>131</v>
       </c>
       <c r="F57" s="1" t="str">
@@ -2855,13 +3015,13 @@
       <c r="B58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F58" s="1" t="str">
@@ -2876,13 +3036,13 @@
       <c r="B59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="2" t="s">
         <v>135</v>
       </c>
       <c r="F59" s="1" t="str">
@@ -2897,13 +3057,13 @@
       <c r="B60" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F60" s="1" t="str">
@@ -2918,13 +3078,13 @@
       <c r="B61" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F61" s="1" t="str">
@@ -2939,13 +3099,13 @@
       <c r="B62" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F62" s="1" t="str">
@@ -2960,13 +3120,13 @@
       <c r="B63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="2" t="s">
         <v>145</v>
       </c>
       <c r="F63" s="1" t="str">
@@ -2981,13 +3141,13 @@
       <c r="B64" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="2" t="s">
         <v>147</v>
       </c>
       <c r="F64" s="1" t="str">
@@ -3002,13 +3162,13 @@
       <c r="B65" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="2" t="s">
         <v>149</v>
       </c>
       <c r="F65" s="1" t="str">
@@ -3023,13 +3183,13 @@
       <c r="B66" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="2" t="s">
         <v>151</v>
       </c>
       <c r="F66" s="1" t="str">
@@ -3044,13 +3204,13 @@
       <c r="B67" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F67" s="1" t="str">
@@ -3065,13 +3225,13 @@
       <c r="B68" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F68" s="1" t="str">
@@ -3086,13 +3246,13 @@
       <c r="B69" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F69" s="1" t="str">
@@ -3107,13 +3267,13 @@
       <c r="B70" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F70" s="1" t="str">
@@ -3128,13 +3288,13 @@
       <c r="B71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F71" s="1" t="str">
@@ -3149,17 +3309,17 @@
       <c r="B72" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F72" s="1" t="str">
-        <f>CONCATENATE("lang_",A72)</f>
+        <f t="shared" si="1"/>
         <v>lang_CourierSelectionTitle</v>
       </c>
     </row>
@@ -3170,17 +3330,17 @@
       <c r="B73" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F73" s="1" t="str">
-        <f>CONCATENATE("lang_",A73)</f>
+        <f t="shared" si="1"/>
         <v>lang_PlayerNotReady</v>
       </c>
     </row>
@@ -3191,17 +3351,17 @@
       <c r="B74" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>CONCATENATE("lang_",A74)</f>
+        <f t="shared" si="1"/>
         <v>lang_Feedback_Title</v>
       </c>
     </row>
@@ -3212,17 +3372,17 @@
       <c r="B75" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F75" s="1" t="str">
-        <f>CONCATENATE("lang_",A75)</f>
+        <f t="shared" si="1"/>
         <v>lang_Feedback_Good</v>
       </c>
     </row>
@@ -3233,17 +3393,17 @@
       <c r="B76" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F76" s="1" t="str">
-        <f>CONCATENATE("lang_",A76)</f>
+        <f t="shared" si="1"/>
         <v>lang_Feedback_Bad</v>
       </c>
     </row>
@@ -3254,17 +3414,17 @@
       <c r="B77" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F77" s="1" t="str">
-        <f>CONCATENATE("lang_",A77)</f>
+        <f t="shared" si="1"/>
         <v>lang_Feedback_Placeholder</v>
       </c>
     </row>
@@ -3275,17 +3435,17 @@
       <c r="B78" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F78" s="1" t="str">
-        <f>CONCATENATE("lang_",A78)</f>
+        <f t="shared" si="1"/>
         <v>lang_Feedback_Send</v>
       </c>
     </row>
@@ -3296,17 +3456,17 @@
       <c r="B79" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F79" s="1" t="str">
-        <f>CONCATENATE("lang_",A79)</f>
+        <f t="shared" si="1"/>
         <v>lang_Feedback_Success</v>
       </c>
     </row>
@@ -3317,17 +3477,17 @@
       <c r="B80" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F80" s="1" t="str">
-        <f>CONCATENATE("lang_",A80)</f>
+        <f t="shared" si="1"/>
         <v>lang_Feedback_Failure</v>
       </c>
     </row>
@@ -3338,17 +3498,17 @@
       <c r="B81" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F81" s="1" t="str">
-        <f>CONCATENATE("lang_",A81)</f>
+        <f t="shared" si="1"/>
         <v>lang_FishManPublish</v>
       </c>
     </row>
@@ -3359,17 +3519,17 @@
       <c r="B82" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F82" s="1" t="str">
-        <f>CONCATENATE("lang_",A82)</f>
+        <f t="shared" si="1"/>
         <v>lang_BugEmail</v>
       </c>
     </row>
@@ -3380,17 +3540,17 @@
       <c r="B83" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F83" s="1" t="str">
-        <f>CONCATENATE("lang_",A83)</f>
+        <f t="shared" si="1"/>
         <v>lang_DiscordLink</v>
       </c>
     </row>
@@ -3401,17 +3561,17 @@
       <c r="B84" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F84" s="1" t="str">
-        <f>CONCATENATE("lang_",A84)</f>
+        <f t="shared" si="1"/>
         <v>lang_Difficult_0</v>
       </c>
     </row>
@@ -3422,17 +3582,17 @@
       <c r="B85" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F85" s="1" t="str">
-        <f>CONCATENATE("lang_",A85)</f>
+        <f t="shared" si="1"/>
         <v>lang_Difficult_0_Description</v>
       </c>
     </row>
@@ -3443,17 +3603,17 @@
       <c r="B86" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F86" s="1" t="str">
-        <f>CONCATENATE("lang_",A86)</f>
+        <f t="shared" si="1"/>
         <v>lang_Difficult_1</v>
       </c>
     </row>
@@ -3464,17 +3624,17 @@
       <c r="B87" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="2" t="s">
         <v>194</v>
       </c>
       <c r="F87" s="1" t="str">
-        <f>CONCATENATE("lang_",A87)</f>
+        <f t="shared" si="1"/>
         <v>lang_Difficult_1_Description</v>
       </c>
     </row>
@@ -3485,17 +3645,17 @@
       <c r="B88" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F88" s="1" t="str">
-        <f>CONCATENATE("lang_",A88)</f>
+        <f t="shared" si="1"/>
         <v>lang_Difficult_2</v>
       </c>
     </row>
@@ -3506,17 +3666,17 @@
       <c r="B89" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="2" t="s">
         <v>198</v>
       </c>
       <c r="F89" s="1" t="str">
-        <f>CONCATENATE("lang_",A89)</f>
+        <f t="shared" si="1"/>
         <v>lang_Difficult_2_Description</v>
       </c>
     </row>
@@ -3527,17 +3687,17 @@
       <c r="B90" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F90" s="1" t="str">
-        <f>CONCATENATE("lang_",A90)</f>
+        <f t="shared" si="1"/>
         <v>lang_Difficult_3</v>
       </c>
     </row>
@@ -3548,17 +3708,17 @@
       <c r="B91" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F91" s="1" t="str">
-        <f>CONCATENATE("lang_",A91)</f>
+        <f t="shared" si="1"/>
         <v>lang_Difficult_3_Description</v>
       </c>
     </row>
@@ -3569,13 +3729,13 @@
       <c r="B92" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="2" t="s">
         <v>204</v>
       </c>
       <c r="F92" s="1" t="str">
@@ -3590,13 +3750,13 @@
       <c r="B93" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="2" t="s">
         <v>206</v>
       </c>
       <c r="F93" s="1" t="str">
@@ -3611,17 +3771,17 @@
       <c r="B94" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="2" t="s">
         <v>208</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" ref="F94:F99" si="2">CONCATENATE("lang_",A94)</f>
+        <f t="shared" ref="F94:F100" si="2">CONCATENATE("lang_",A94)</f>
         <v>lang_Difficult_5</v>
       </c>
     </row>
@@ -3632,13 +3792,13 @@
       <c r="B95" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F95" s="1" t="str">
@@ -3653,13 +3813,13 @@
       <c r="B96" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F96" s="1" t="str">
@@ -3674,13 +3834,13 @@
       <c r="B97" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F97" s="1" t="str">
@@ -3695,13 +3855,13 @@
       <c r="B98" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="2" t="s">
         <v>216</v>
       </c>
       <c r="F98" s="1" t="str">
@@ -3716,18 +3876,564 @@
       <c r="B99" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="2" t="s">
         <v>218</v>
       </c>
       <c r="F99" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_999_Description</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f t="shared" ref="F100:F125" si="3">CONCATENATE("",A100)</f>
+        <v>P6_Primary_tip</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_Strength_Custom</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>P6_StrengthDetails_Custom</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>P6_StrengthDetails_Custom_Primary</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_Agility_Custom</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>P6_AgilityDetails_Custom</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>P6_AgilityDetails_Custom_Primary</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F107" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_Intellect_Custom</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F108" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>P6_IntellectDetails_Custom</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F109" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>P6_IntellectDetails_Custom_Primary</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F110" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_TotalDamagePercent</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F111" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_PhysicalDamagePercent</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F112" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_MagicalDamagePercent</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F113" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_PureDamagePercent</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F114" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_PhysicalArmor_Custom</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F115" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_MagicalArmor_Custom</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F116" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit_Stats_Label_Outgoing</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F117" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Unit_Stats_Label_Other</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F118" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_IgnorePhysicalArmorPercent</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F119" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_IgnoreMagicalArmorPercent</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F120" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_CooldownReduction</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F121" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_EnergyRegen</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F122" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_AttackCrit</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F123" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_AttackCritDamage</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F124" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_SpellCrit</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F125" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_SpellCritDamage</v>
       </c>
     </row>
   </sheetData>
@@ -3754,10 +4460,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -3768,10 +4474,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -3782,27 +4488,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>225</v>
+        <v>278</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="11730"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="294">
   <si>
     <t>主键</t>
   </si>
@@ -834,6 +834,42 @@
   </si>
   <si>
     <t>技能暴击伤害：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_IncomingTotalDamagePercent</t>
+  </si>
+  <si>
+    <t>&lt;font color='#EEEEEE'&gt;受到全伤害：&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_IncomingPhysicalDamagePercent</t>
+  </si>
+  <si>
+    <t>&lt;font color='#ae2f28'&gt;受到物理伤害：&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_IncomingMagicalDamagePercent</t>
+  </si>
+  <si>
+    <t>&lt;font color='#5b93d1'&gt;受到魔法伤害：&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_IncomingPureDamagePercent</t>
+  </si>
+  <si>
+    <t>&lt;font color='#d8ae53'&gt;受到纯粹伤害：&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_LifeSteal</t>
+  </si>
+  <si>
+    <t>攻击吸血：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_SpellLifeSteal</t>
+  </si>
+  <si>
+    <t>技能吸血：</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1807,15 +1843,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102:E109"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="34" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
     <col min="3" max="4" width="27.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="37" style="2" customWidth="1"/>
@@ -3907,7 +3943,7 @@
         <v>221</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f t="shared" ref="F100:F125" si="3">CONCATENATE("",A100)</f>
+        <f t="shared" ref="F100:F131" si="3">CONCATENATE("",A100)</f>
         <v>P6_Primary_tip</v>
       </c>
     </row>
@@ -4434,6 +4470,132 @@
       <c r="F125" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_SpellCritDamage</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F126" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_IncomingTotalDamagePercent</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F127" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_IncomingPhysicalDamagePercent</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F128" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_IncomingMagicalDamagePercent</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F129" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_IncomingPureDamagePercent</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F130" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_LifeSteal</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F131" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_SpellLifeSteal</v>
       </c>
     </row>
   </sheetData>
@@ -4460,10 +4622,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4474,10 +4636,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -4488,27 +4650,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="307">
   <si>
     <t>主键</t>
   </si>
@@ -869,7 +869,46 @@
     <t>DOTA_HUD_SpellLifeSteal</t>
   </si>
   <si>
+    <t>技能属性界面</t>
+  </si>
+  <si>
     <t>技能吸血：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_ABILITYCASTRANGE</t>
+  </si>
+  <si>
+    <t>施法范围</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_ABILITYCASTPOINT</t>
+  </si>
+  <si>
+    <t>施法前摇</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_ABILITYDURATION</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_ABILITYCHANNELTIME</t>
+  </si>
+  <si>
+    <t>持续施法时间：</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_ABILITYDAMAGE</t>
+  </si>
+  <si>
+    <t>技能伤害</t>
+  </si>
+  <si>
+    <t>DOTA_HUD_ABILITYCOOLDOWN</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1843,10 +1882,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -3943,7 +3982,7 @@
         <v>221</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f t="shared" ref="F100:F131" si="3">CONCATENATE("",A100)</f>
+        <f t="shared" ref="F100:F137" si="3">CONCATENATE("",A100)</f>
         <v>P6_Primary_tip</v>
       </c>
     </row>
@@ -4582,21 +4621,150 @@
         <v>282</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F131" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_SpellLifeSteal</v>
       </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F132" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_ABILITYCASTRANGE</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F133" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_ABILITYCASTPOINT</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F134" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_ABILITYDURATION</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F135" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_ABILITYCHANNELTIME</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F136" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_ABILITYDAMAGE</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F137" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_ABILITYCOOLDOWN</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4622,10 +4790,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4636,10 +4804,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -4650,27 +4818,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$258</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="309">
   <si>
     <t>主键</t>
   </si>
@@ -677,13 +677,19 @@
     <t>正常45回合，之后有额外的无尽回合，看看你的极限在哪里&lt;br&gt;每回合结束恢复20%的蓝量&lt;br&gt;解锁符石碎片掉落（每日首次通关双倍）</t>
   </si>
   <si>
-    <t>P6_Primary_tip</t>
+    <t>UnitStatPanel_Primary_tip</t>
   </si>
   <si>
     <t>单位属性界面</t>
   </si>
   <si>
-    <t>英雄的主属性是动态变化的，它总是数值最高的属性</t>
+    <t>获取英雄熟练度经验，可以提升英雄等级，大幅度提升英雄属性。</t>
+  </si>
+  <si>
+    <t>UnitStatPanel_Prop_PerLevel</t>
+  </si>
+  <si>
+    <t>(每级获得{s:prop_per_level}点)</t>
   </si>
   <si>
     <t>DOTA_HUD_Strength_Custom</t>
@@ -692,16 +698,16 @@
     <t>力量</t>
   </si>
   <si>
-    <t>P6_StrengthDetails_Custom</t>
-  </si>
-  <si>
-    <t>= {s:strength_attack_damage}点攻击力</t>
-  </si>
-  <si>
-    <t>P6_StrengthDetails_Custom_Primary</t>
-  </si>
-  <si>
-    <t>= {s:strength_energy_regen}%怒气获取加成（主属性加成）&lt;br&gt;= {s:strength_all_damage}%额外最终伤害（主属性加成）（上限{s:strength_all_damage_max}%）</t>
+    <t>UnitStatPanel_StrengthDetails_Custom</t>
+  </si>
+  <si>
+    <t>= {s:strength_hp_bonus}点气血, {s:strength_hp_regen}点每秒气血回复</t>
+  </si>
+  <si>
+    <t>UnitStatPanel_StrengthDetails_Custom_Primary</t>
+  </si>
+  <si>
+    <t>= {s:primary_attribute_damage}点伤害 ,{s:strength_status_resistance}%状态抵抗（主属性加成）</t>
   </si>
   <si>
     <t>DOTA_HUD_Agility_Custom</t>
@@ -710,16 +716,16 @@
     <t>敏捷</t>
   </si>
   <si>
-    <t>P6_AgilityDetails_Custom</t>
-  </si>
-  <si>
-    <t>= {s:agility_attack_speed}攻击速度</t>
-  </si>
-  <si>
-    <t>P6_AgilityDetails_Custom_Primary</t>
-  </si>
-  <si>
-    <t>= {s:agility_max_attack_speed}最大攻击速度（主属性加成）</t>
+    <t>UnitStatPanel_AgilityDetails_Custom</t>
+  </si>
+  <si>
+    <t>= {s:agility_attack_speed}攻击速度, {s:agility_physical_armor}点护甲</t>
+  </si>
+  <si>
+    <t>UnitStatPanel_AgilityDetails_Custom_Primary</t>
+  </si>
+  <si>
+    <t>= {s:primary_attribute_damage}点伤害 ,{s:agility_max_attack_speed}最大攻击速度（主属性加成）</t>
   </si>
   <si>
     <t>DOTA_HUD_Intellect_Custom</t>
@@ -728,16 +734,16 @@
     <t>智力</t>
   </si>
   <si>
-    <t>P6_IntellectDetails_Custom</t>
-  </si>
-  <si>
-    <t>= {s:intellect_mana}最大魔法值</t>
-  </si>
-  <si>
-    <t>P6_IntellectDetails_Custom_Primary</t>
-  </si>
-  <si>
-    <t>= {s:intellect_cooldown_reduction}%冷却缩减（主属性加成）</t>
+    <t>UnitStatPanel_IntellectDetails_Custom</t>
+  </si>
+  <si>
+    <t>= {s:intellect_mana_regen}点每秒魔法回复 ,{s:intellect_cooldown_reduction}%冷却缩减</t>
+  </si>
+  <si>
+    <t>UnitStatPanel_IntellectDetails_Custom_Primary</t>
+  </si>
+  <si>
+    <t>= {s:primary_attribute_damage}点伤害 ,{s:intellect_spell_amplify}%技能增强（主属性加成）</t>
   </si>
   <si>
     <t>DOTA_HUD_TotalDamagePercent</t>
@@ -1882,10 +1888,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -3982,8 +3988,8 @@
         <v>221</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f t="shared" ref="F100:F137" si="3">CONCATENATE("",A100)</f>
-        <v>P6_Primary_tip</v>
+        <f>CONCATENATE("",A100)</f>
+        <v>UnitStatPanel_Primary_tip</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4003,8 +4009,8 @@
         <v>223</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DOTA_HUD_Strength_Custom</v>
+        <f>CONCATENATE("",A101)</f>
+        <v>UnitStatPanel_Prop_PerLevel</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4024,8 +4030,8 @@
         <v>225</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>P6_StrengthDetails_Custom</v>
+        <f t="shared" ref="F102:F138" si="3">CONCATENATE("",A102)</f>
+        <v>DOTA_HUD_Strength_Custom</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4046,7 +4052,7 @@
       </c>
       <c r="F103" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>P6_StrengthDetails_Custom_Primary</v>
+        <v>UnitStatPanel_StrengthDetails_Custom</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4067,7 +4073,7 @@
       </c>
       <c r="F104" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_Agility_Custom</v>
+        <v>UnitStatPanel_StrengthDetails_Custom_Primary</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4088,7 +4094,7 @@
       </c>
       <c r="F105" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>P6_AgilityDetails_Custom</v>
+        <v>DOTA_HUD_Agility_Custom</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4109,7 +4115,7 @@
       </c>
       <c r="F106" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>P6_AgilityDetails_Custom_Primary</v>
+        <v>UnitStatPanel_AgilityDetails_Custom</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4130,7 +4136,7 @@
       </c>
       <c r="F107" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_Intellect_Custom</v>
+        <v>UnitStatPanel_AgilityDetails_Custom_Primary</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4151,7 +4157,7 @@
       </c>
       <c r="F108" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>P6_IntellectDetails_Custom</v>
+        <v>DOTA_HUD_Intellect_Custom</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4172,7 +4178,7 @@
       </c>
       <c r="F109" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>P6_IntellectDetails_Custom_Primary</v>
+        <v>UnitStatPanel_IntellectDetails_Custom</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4193,7 +4199,7 @@
       </c>
       <c r="F110" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_TotalDamagePercent</v>
+        <v>UnitStatPanel_IntellectDetails_Custom_Primary</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4214,7 +4220,7 @@
       </c>
       <c r="F111" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_PhysicalDamagePercent</v>
+        <v>DOTA_HUD_TotalDamagePercent</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4235,7 +4241,7 @@
       </c>
       <c r="F112" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_MagicalDamagePercent</v>
+        <v>DOTA_HUD_PhysicalDamagePercent</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4256,7 +4262,7 @@
       </c>
       <c r="F113" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_PureDamagePercent</v>
+        <v>DOTA_HUD_MagicalDamagePercent</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4277,7 +4283,7 @@
       </c>
       <c r="F114" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_PhysicalArmor_Custom</v>
+        <v>DOTA_HUD_PureDamagePercent</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4298,7 +4304,7 @@
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_MagicalArmor_Custom</v>
+        <v>DOTA_HUD_PhysicalArmor_Custom</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4319,7 +4325,7 @@
       </c>
       <c r="F116" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Unit_Stats_Label_Outgoing</v>
+        <v>DOTA_HUD_MagicalArmor_Custom</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4340,7 +4346,7 @@
       </c>
       <c r="F117" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Unit_Stats_Label_Other</v>
+        <v>Unit_Stats_Label_Outgoing</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4361,7 +4367,7 @@
       </c>
       <c r="F118" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IgnorePhysicalArmorPercent</v>
+        <v>Unit_Stats_Label_Other</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4382,7 +4388,7 @@
       </c>
       <c r="F119" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IgnoreMagicalArmorPercent</v>
+        <v>DOTA_HUD_IgnorePhysicalArmorPercent</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4403,7 +4409,7 @@
       </c>
       <c r="F120" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_CooldownReduction</v>
+        <v>DOTA_HUD_IgnoreMagicalArmorPercent</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4424,7 +4430,7 @@
       </c>
       <c r="F121" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_EnergyRegen</v>
+        <v>DOTA_HUD_CooldownReduction</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4445,7 +4451,7 @@
       </c>
       <c r="F122" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_AttackCrit</v>
+        <v>DOTA_HUD_EnergyRegen</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4466,7 +4472,7 @@
       </c>
       <c r="F123" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_AttackCritDamage</v>
+        <v>DOTA_HUD_AttackCrit</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4487,7 +4493,7 @@
       </c>
       <c r="F124" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_SpellCrit</v>
+        <v>DOTA_HUD_AttackCritDamage</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4508,7 +4514,7 @@
       </c>
       <c r="F125" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_SpellCritDamage</v>
+        <v>DOTA_HUD_SpellCrit</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4529,7 +4535,7 @@
       </c>
       <c r="F126" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingTotalDamagePercent</v>
+        <v>DOTA_HUD_SpellCritDamage</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4550,7 +4556,7 @@
       </c>
       <c r="F127" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingPhysicalDamagePercent</v>
+        <v>DOTA_HUD_IncomingTotalDamagePercent</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4571,7 +4577,7 @@
       </c>
       <c r="F128" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingMagicalDamagePercent</v>
+        <v>DOTA_HUD_IncomingPhysicalDamagePercent</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4592,7 +4598,7 @@
       </c>
       <c r="F129" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingPureDamagePercent</v>
+        <v>DOTA_HUD_IncomingMagicalDamagePercent</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4613,7 +4619,7 @@
       </c>
       <c r="F130" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_LifeSteal</v>
+        <v>DOTA_HUD_IncomingPureDamagePercent</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4621,28 +4627,28 @@
         <v>282</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D131" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F131" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_SpellLifeSteal</v>
+        <v>DOTA_HUD_LifeSteal</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>286</v>
@@ -4655,7 +4661,7 @@
       </c>
       <c r="F132" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCASTRANGE</v>
+        <v>DOTA_HUD_SpellLifeSteal</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4663,7 +4669,7 @@
         <v>287</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>288</v>
@@ -4676,7 +4682,7 @@
       </c>
       <c r="F133" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCASTPOINT</v>
+        <v>DOTA_HUD_ABILITYCASTRANGE</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4684,7 +4690,7 @@
         <v>289</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>290</v>
@@ -4697,7 +4703,7 @@
       </c>
       <c r="F134" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYDURATION</v>
+        <v>DOTA_HUD_ABILITYCASTPOINT</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4705,7 +4711,7 @@
         <v>291</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>292</v>
@@ -4718,7 +4724,7 @@
       </c>
       <c r="F135" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCHANNELTIME</v>
+        <v>DOTA_HUD_ABILITYDURATION</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4726,7 +4732,7 @@
         <v>293</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>294</v>
@@ -4739,7 +4745,7 @@
       </c>
       <c r="F136" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYDAMAGE</v>
+        <v>DOTA_HUD_ABILITYCHANNELTIME</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4747,7 +4753,7 @@
         <v>295</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>296</v>
@@ -4760,11 +4766,32 @@
       </c>
       <c r="F137" s="1" t="str">
         <f t="shared" si="3"/>
+        <v>DOTA_HUD_ABILITYDAMAGE</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F138" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>DOTA_HUD_ABILITYCOOLDOWN</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="2"/>
+    <row r="139" spans="2:2">
+      <c r="B139" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4790,10 +4817,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4804,10 +4831,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -4818,27 +4845,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -1890,8 +1890,8 @@
   <sheetPr/>
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106:E106"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$259</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="311">
   <si>
     <t>主键</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>背包商店</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>抽卡</t>
   </si>
   <si>
     <t>HUD_Shop_Home</t>
@@ -1888,10 +1894,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2203,7 +2209,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="1" t="str">
-        <f t="shared" ref="F15:F27" si="0">CONCATENATE("lang_",A15)</f>
+        <f t="shared" ref="F15:F28" si="0">CONCATENATE("lang_",A15)</f>
         <v>lang_MenuButton_setting</v>
       </c>
     </row>
@@ -2464,28 +2470,28 @@
         <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="1" t="str">
-        <f t="shared" ref="F28:F91" si="1">CONCATENATE("lang_",A28)</f>
-        <v>lang_HUD_Shop_Home</v>
+        <f t="shared" si="0"/>
+        <v>lang_draw</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>75</v>
@@ -2497,8 +2503,8 @@
         <v>75</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Props</v>
+        <f t="shared" ref="F29:F92" si="1">CONCATENATE("lang_",A29)</f>
+        <v>lang_HUD_Shop_Home</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2506,7 +2512,7 @@
         <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>77</v>
@@ -2519,7 +2525,7 @@
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Resource</v>
+        <v>lang_HUD_Shop_Props</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2527,7 +2533,7 @@
         <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>79</v>
@@ -2540,7 +2546,7 @@
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Star</v>
+        <v>lang_HUD_Shop_Resource</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2548,7 +2554,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>81</v>
@@ -2561,7 +2567,7 @@
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Chest</v>
+        <v>lang_HUD_Shop_Star</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2569,7 +2575,7 @@
         <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>83</v>
@@ -2582,7 +2588,7 @@
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_HotSale</v>
+        <v>lang_HUD_Shop_Chest</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2590,7 +2596,7 @@
         <v>84</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>85</v>
@@ -2603,7 +2609,7 @@
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_DailyLimitedSale</v>
+        <v>lang_HUD_Shop_HotSale</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2611,7 +2617,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>87</v>
@@ -2624,7 +2630,7 @@
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_LimitedSale</v>
+        <v>lang_HUD_Shop_DailyLimitedSale</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2632,7 +2638,7 @@
         <v>88</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>89</v>
@@ -2645,7 +2651,7 @@
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_LimitedSaleTime</v>
+        <v>lang_HUD_Shop_LimitedSale</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2653,7 +2659,7 @@
         <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>91</v>
@@ -2666,7 +2672,7 @@
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Free</v>
+        <v>lang_LimitedSaleTime</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2674,7 +2680,7 @@
         <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>93</v>
@@ -2687,7 +2693,7 @@
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Buy_With_Money</v>
+        <v>lang_Free</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2695,7 +2701,7 @@
         <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>95</v>
@@ -2708,7 +2714,7 @@
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Error_Star_Not_Enough</v>
+        <v>lang_Shop_Buy_With_Money</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2716,7 +2722,7 @@
         <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>97</v>
@@ -2729,7 +2735,7 @@
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Buy_Success</v>
+        <v>lang_Error_Star_Not_Enough</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2737,7 +2743,7 @@
         <v>98</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>99</v>
@@ -2750,7 +2756,7 @@
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Buy_Fail</v>
+        <v>lang_DialogBox_Buy_Success</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2758,7 +2764,7 @@
         <v>100</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>101</v>
@@ -2771,7 +2777,7 @@
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Get_Success</v>
+        <v>lang_DialogBox_Buy_Fail</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2779,7 +2785,7 @@
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>103</v>
@@ -2792,7 +2798,7 @@
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Get_Fail</v>
+        <v>lang_DialogBox_Get_Success</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2800,7 +2806,7 @@
         <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>105</v>
@@ -2813,7 +2819,7 @@
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Payment_PleaseWait</v>
+        <v>lang_DialogBox_Get_Fail</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2821,7 +2827,7 @@
         <v>106</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>107</v>
@@ -2834,7 +2840,7 @@
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Payment_WebPageOpened</v>
+        <v>lang_Payment_PleaseWait</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2842,7 +2848,7 @@
         <v>108</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>109</v>
@@ -2855,7 +2861,7 @@
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Payment_Create_Fail</v>
+        <v>lang_Payment_WebPageOpened</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2863,7 +2869,7 @@
         <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>111</v>
@@ -2876,7 +2882,7 @@
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_1</v>
+        <v>lang_Payment_Create_Fail</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2884,7 +2890,7 @@
         <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>113</v>
@@ -2897,7 +2903,7 @@
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_line_first</v>
+        <v>lang_Shop_Goods_1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2905,7 +2911,7 @@
         <v>114</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>115</v>
@@ -2918,7 +2924,7 @@
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_line</v>
+        <v>lang_Shop_Goods_line_first</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2926,7 +2932,7 @@
         <v>116</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>117</v>
@@ -2939,7 +2945,7 @@
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_0</v>
+        <v>lang_Shop_Goods_line</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2947,7 +2953,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>119</v>
@@ -2960,7 +2966,7 @@
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_1</v>
+        <v>lang_Shop_Goods_limit_0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2968,7 +2974,7 @@
         <v>120</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>121</v>
@@ -2981,7 +2987,7 @@
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_2</v>
+        <v>lang_Shop_Goods_limit_1</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2989,7 +2995,7 @@
         <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>123</v>
@@ -3002,7 +3008,7 @@
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_3</v>
+        <v>lang_Shop_Goods_limit_2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3010,7 +3016,7 @@
         <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>125</v>
@@ -3023,7 +3029,7 @@
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_4</v>
+        <v>lang_Shop_Goods_limit_3</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3031,7 +3037,7 @@
         <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>127</v>
@@ -3044,7 +3050,7 @@
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_5</v>
+        <v>lang_Shop_Goods_limit_4</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3052,7 +3058,7 @@
         <v>128</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>129</v>
@@ -3065,7 +3071,7 @@
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_6</v>
+        <v>lang_Shop_Goods_limit_5</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3073,7 +3079,7 @@
         <v>130</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>131</v>
@@ -3086,7 +3092,7 @@
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_CDK</v>
+        <v>lang_Shop_Goods_limit_6</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3094,7 +3100,7 @@
         <v>132</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>133</v>
@@ -3107,7 +3113,7 @@
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_CDKResult</v>
+        <v>lang_CDK</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3115,7 +3121,7 @@
         <v>134</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>135</v>
@@ -3128,7 +3134,7 @@
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_ExchangeProductResult</v>
+        <v>lang_CDKResult</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3136,49 +3142,49 @@
         <v>136</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="D60" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_combination_rule</v>
+        <v>lang_ExchangeProductResult</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Yes</v>
+        <v>lang_combination_rule</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>143</v>
@@ -3191,7 +3197,7 @@
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_No</v>
+        <v>lang_DialogBox_Yes</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3199,7 +3205,7 @@
         <v>144</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>145</v>
@@ -3212,7 +3218,7 @@
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Rcv</v>
+        <v>lang_DialogBox_No</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3220,7 +3226,7 @@
         <v>146</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>147</v>
@@ -3233,7 +3239,7 @@
       </c>
       <c r="F64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Not_Again</v>
+        <v>lang_DialogBox_Rcv</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3241,7 +3247,7 @@
         <v>148</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>149</v>
@@ -3254,7 +3260,7 @@
       </c>
       <c r="F65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_ClickBlankClose</v>
+        <v>lang_DialogBox_Not_Again</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3262,7 +3268,7 @@
         <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>151</v>
@@ -3275,7 +3281,7 @@
       </c>
       <c r="F66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Buy</v>
+        <v>lang_ClickBlankClose</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3283,7 +3289,7 @@
         <v>152</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>153</v>
@@ -3296,7 +3302,7 @@
       </c>
       <c r="F67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_GotoOpen</v>
+        <v>lang_DialogBox_Buy</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3304,7 +3310,7 @@
         <v>154</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>155</v>
@@ -3317,7 +3323,7 @@
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_PleaseWait</v>
+        <v>lang_DialogBox_GotoOpen</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3325,28 +3331,28 @@
         <v>156</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_TimerTitle</v>
+        <v>lang_DialogBox_PleaseWait</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>160</v>
@@ -3359,7 +3365,7 @@
       </c>
       <c r="F70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Select_Difficulties</v>
+        <v>lang_TimerTitle</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3367,7 +3373,7 @@
         <v>161</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>162</v>
@@ -3380,7 +3386,7 @@
       </c>
       <c r="F71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Help_new_player</v>
+        <v>lang_Select_Difficulties</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3388,7 +3394,7 @@
         <v>163</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>164</v>
@@ -3401,7 +3407,7 @@
       </c>
       <c r="F72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_CourierSelectionTitle</v>
+        <v>lang_Help_new_player</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3409,7 +3415,7 @@
         <v>165</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>166</v>
@@ -3422,7 +3428,7 @@
       </c>
       <c r="F73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_PlayerNotReady</v>
+        <v>lang_CourierSelectionTitle</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3430,7 +3436,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>168</v>
@@ -3443,7 +3449,7 @@
       </c>
       <c r="F74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Title</v>
+        <v>lang_PlayerNotReady</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3451,7 +3457,7 @@
         <v>169</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>170</v>
@@ -3464,7 +3470,7 @@
       </c>
       <c r="F75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Good</v>
+        <v>lang_Feedback_Title</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3472,7 +3478,7 @@
         <v>171</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>172</v>
@@ -3485,7 +3491,7 @@
       </c>
       <c r="F76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Bad</v>
+        <v>lang_Feedback_Good</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3493,7 +3499,7 @@
         <v>173</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>174</v>
@@ -3506,7 +3512,7 @@
       </c>
       <c r="F77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Placeholder</v>
+        <v>lang_Feedback_Bad</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3514,7 +3520,7 @@
         <v>175</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>176</v>
@@ -3527,7 +3533,7 @@
       </c>
       <c r="F78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Send</v>
+        <v>lang_Feedback_Placeholder</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3535,7 +3541,7 @@
         <v>177</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>178</v>
@@ -3548,7 +3554,7 @@
       </c>
       <c r="F79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Success</v>
+        <v>lang_Feedback_Send</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3556,7 +3562,7 @@
         <v>179</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>180</v>
@@ -3569,7 +3575,7 @@
       </c>
       <c r="F80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Failure</v>
+        <v>lang_Feedback_Success</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3577,7 +3583,7 @@
         <v>181</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>182</v>
@@ -3590,7 +3596,7 @@
       </c>
       <c r="F81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_FishManPublish</v>
+        <v>lang_Feedback_Failure</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3598,7 +3604,7 @@
         <v>183</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>184</v>
@@ -3611,7 +3617,7 @@
       </c>
       <c r="F82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_BugEmail</v>
+        <v>lang_FishManPublish</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3619,7 +3625,7 @@
         <v>185</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>186</v>
@@ -3632,7 +3638,7 @@
       </c>
       <c r="F83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DiscordLink</v>
+        <v>lang_BugEmail</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3640,7 +3646,7 @@
         <v>187</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>188</v>
@@ -3653,7 +3659,7 @@
       </c>
       <c r="F84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_0</v>
+        <v>lang_DiscordLink</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3661,7 +3667,7 @@
         <v>189</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>190</v>
@@ -3674,7 +3680,7 @@
       </c>
       <c r="F85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_0_Description</v>
+        <v>lang_Difficult_0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3682,7 +3688,7 @@
         <v>191</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>192</v>
@@ -3695,7 +3701,7 @@
       </c>
       <c r="F86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_1</v>
+        <v>lang_Difficult_0_Description</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3703,7 +3709,7 @@
         <v>193</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>194</v>
@@ -3716,7 +3722,7 @@
       </c>
       <c r="F87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_1_Description</v>
+        <v>lang_Difficult_1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3724,7 +3730,7 @@
         <v>195</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>196</v>
@@ -3737,7 +3743,7 @@
       </c>
       <c r="F88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_2</v>
+        <v>lang_Difficult_1_Description</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3745,7 +3751,7 @@
         <v>197</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>198</v>
@@ -3758,7 +3764,7 @@
       </c>
       <c r="F89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_2_Description</v>
+        <v>lang_Difficult_2</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3766,7 +3772,7 @@
         <v>199</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>200</v>
@@ -3779,7 +3785,7 @@
       </c>
       <c r="F90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_3</v>
+        <v>lang_Difficult_2_Description</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3787,7 +3793,7 @@
         <v>201</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>202</v>
@@ -3800,7 +3806,7 @@
       </c>
       <c r="F91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_3_Description</v>
+        <v>lang_Difficult_3</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3808,7 +3814,7 @@
         <v>203</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>204</v>
@@ -3820,8 +3826,8 @@
         <v>204</v>
       </c>
       <c r="F92" s="1" t="str">
-        <f>CONCATENATE("lang_",A92)</f>
-        <v>lang_Difficult_4</v>
+        <f t="shared" si="1"/>
+        <v>lang_Difficult_3_Description</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3829,7 +3835,7 @@
         <v>205</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>206</v>
@@ -3842,7 +3848,7 @@
       </c>
       <c r="F93" s="1" t="str">
         <f>CONCATENATE("lang_",A93)</f>
-        <v>lang_Difficult_4_Description</v>
+        <v>lang_Difficult_4</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3850,7 +3856,7 @@
         <v>207</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>208</v>
@@ -3862,8 +3868,8 @@
         <v>208</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f t="shared" ref="F94:F100" si="2">CONCATENATE("lang_",A94)</f>
-        <v>lang_Difficult_5</v>
+        <f>CONCATENATE("lang_",A94)</f>
+        <v>lang_Difficult_4_Description</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3871,7 +3877,7 @@
         <v>209</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>210</v>
@@ -3883,8 +3889,8 @@
         <v>210</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>lang_Difficult_5_Description</v>
+        <f t="shared" ref="F95:F101" si="2">CONCATENATE("lang_",A95)</f>
+        <v>lang_Difficult_5</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3892,7 +3898,7 @@
         <v>211</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>212</v>
@@ -3905,7 +3911,7 @@
       </c>
       <c r="F96" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lang_Difficult_6</v>
+        <v>lang_Difficult_5_Description</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3913,7 +3919,7 @@
         <v>213</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>214</v>
@@ -3926,7 +3932,7 @@
       </c>
       <c r="F97" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lang_Difficult_6_Description</v>
+        <v>lang_Difficult_6</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3934,7 +3940,7 @@
         <v>215</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>216</v>
@@ -3947,7 +3953,7 @@
       </c>
       <c r="F98" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lang_Difficult_999</v>
+        <v>lang_Difficult_6_Description</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3955,7 +3961,7 @@
         <v>217</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>218</v>
@@ -3968,7 +3974,7 @@
       </c>
       <c r="F99" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lang_Difficult_999_Description</v>
+        <v>lang_Difficult_999</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3976,28 +3982,28 @@
         <v>219</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>221</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F100" s="1" t="str">
-        <f>CONCATENATE("",A100)</f>
-        <v>UnitStatPanel_Primary_tip</v>
+        <f t="shared" si="2"/>
+        <v>lang_Difficult_999_Description</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>223</v>
@@ -4010,7 +4016,7 @@
       </c>
       <c r="F101" s="1" t="str">
         <f>CONCATENATE("",A101)</f>
-        <v>UnitStatPanel_Prop_PerLevel</v>
+        <v>UnitStatPanel_Primary_tip</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4018,7 +4024,7 @@
         <v>224</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>225</v>
@@ -4030,8 +4036,8 @@
         <v>225</v>
       </c>
       <c r="F102" s="1" t="str">
-        <f t="shared" ref="F102:F138" si="3">CONCATENATE("",A102)</f>
-        <v>DOTA_HUD_Strength_Custom</v>
+        <f>CONCATENATE("",A102)</f>
+        <v>UnitStatPanel_Prop_PerLevel</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4039,7 +4045,7 @@
         <v>226</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>227</v>
@@ -4051,8 +4057,8 @@
         <v>227</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>UnitStatPanel_StrengthDetails_Custom</v>
+        <f t="shared" ref="F103:F139" si="3">CONCATENATE("",A103)</f>
+        <v>DOTA_HUD_Strength_Custom</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4060,7 +4066,7 @@
         <v>228</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>229</v>
@@ -4073,7 +4079,7 @@
       </c>
       <c r="F104" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitStatPanel_StrengthDetails_Custom_Primary</v>
+        <v>UnitStatPanel_StrengthDetails_Custom</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4081,7 +4087,7 @@
         <v>230</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>231</v>
@@ -4094,7 +4100,7 @@
       </c>
       <c r="F105" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_Agility_Custom</v>
+        <v>UnitStatPanel_StrengthDetails_Custom_Primary</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4102,7 +4108,7 @@
         <v>232</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>233</v>
@@ -4115,7 +4121,7 @@
       </c>
       <c r="F106" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitStatPanel_AgilityDetails_Custom</v>
+        <v>DOTA_HUD_Agility_Custom</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4123,7 +4129,7 @@
         <v>234</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>235</v>
@@ -4136,7 +4142,7 @@
       </c>
       <c r="F107" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitStatPanel_AgilityDetails_Custom_Primary</v>
+        <v>UnitStatPanel_AgilityDetails_Custom</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4144,7 +4150,7 @@
         <v>236</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>237</v>
@@ -4157,7 +4163,7 @@
       </c>
       <c r="F108" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_Intellect_Custom</v>
+        <v>UnitStatPanel_AgilityDetails_Custom_Primary</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4165,7 +4171,7 @@
         <v>238</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>239</v>
@@ -4178,7 +4184,7 @@
       </c>
       <c r="F109" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitStatPanel_IntellectDetails_Custom</v>
+        <v>DOTA_HUD_Intellect_Custom</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4186,7 +4192,7 @@
         <v>240</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>241</v>
@@ -4199,7 +4205,7 @@
       </c>
       <c r="F110" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitStatPanel_IntellectDetails_Custom_Primary</v>
+        <v>UnitStatPanel_IntellectDetails_Custom</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4207,7 +4213,7 @@
         <v>242</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>243</v>
@@ -4220,7 +4226,7 @@
       </c>
       <c r="F111" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_TotalDamagePercent</v>
+        <v>UnitStatPanel_IntellectDetails_Custom_Primary</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4228,7 +4234,7 @@
         <v>244</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>245</v>
@@ -4241,7 +4247,7 @@
       </c>
       <c r="F112" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_PhysicalDamagePercent</v>
+        <v>DOTA_HUD_TotalDamagePercent</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4249,7 +4255,7 @@
         <v>246</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>247</v>
@@ -4262,7 +4268,7 @@
       </c>
       <c r="F113" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_MagicalDamagePercent</v>
+        <v>DOTA_HUD_PhysicalDamagePercent</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4270,7 +4276,7 @@
         <v>248</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>249</v>
@@ -4283,7 +4289,7 @@
       </c>
       <c r="F114" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_PureDamagePercent</v>
+        <v>DOTA_HUD_MagicalDamagePercent</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4291,7 +4297,7 @@
         <v>250</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>251</v>
@@ -4304,7 +4310,7 @@
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_PhysicalArmor_Custom</v>
+        <v>DOTA_HUD_PureDamagePercent</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4312,7 +4318,7 @@
         <v>252</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>253</v>
@@ -4325,7 +4331,7 @@
       </c>
       <c r="F116" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_MagicalArmor_Custom</v>
+        <v>DOTA_HUD_PhysicalArmor_Custom</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4333,7 +4339,7 @@
         <v>254</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>255</v>
@@ -4346,7 +4352,7 @@
       </c>
       <c r="F117" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Unit_Stats_Label_Outgoing</v>
+        <v>DOTA_HUD_MagicalArmor_Custom</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4354,7 +4360,7 @@
         <v>256</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>257</v>
@@ -4367,7 +4373,7 @@
       </c>
       <c r="F118" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Unit_Stats_Label_Other</v>
+        <v>Unit_Stats_Label_Outgoing</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4375,7 +4381,7 @@
         <v>258</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>259</v>
@@ -4388,7 +4394,7 @@
       </c>
       <c r="F119" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IgnorePhysicalArmorPercent</v>
+        <v>Unit_Stats_Label_Other</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4396,7 +4402,7 @@
         <v>260</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>261</v>
@@ -4409,7 +4415,7 @@
       </c>
       <c r="F120" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IgnoreMagicalArmorPercent</v>
+        <v>DOTA_HUD_IgnorePhysicalArmorPercent</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4417,7 +4423,7 @@
         <v>262</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>263</v>
@@ -4430,7 +4436,7 @@
       </c>
       <c r="F121" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_CooldownReduction</v>
+        <v>DOTA_HUD_IgnoreMagicalArmorPercent</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4438,7 +4444,7 @@
         <v>264</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>265</v>
@@ -4451,7 +4457,7 @@
       </c>
       <c r="F122" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_EnergyRegen</v>
+        <v>DOTA_HUD_CooldownReduction</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4459,7 +4465,7 @@
         <v>266</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>267</v>
@@ -4472,7 +4478,7 @@
       </c>
       <c r="F123" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_AttackCrit</v>
+        <v>DOTA_HUD_EnergyRegen</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4480,7 +4486,7 @@
         <v>268</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>269</v>
@@ -4493,7 +4499,7 @@
       </c>
       <c r="F124" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_AttackCritDamage</v>
+        <v>DOTA_HUD_AttackCrit</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4501,7 +4507,7 @@
         <v>270</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>271</v>
@@ -4514,7 +4520,7 @@
       </c>
       <c r="F125" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_SpellCrit</v>
+        <v>DOTA_HUD_AttackCritDamage</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4522,7 +4528,7 @@
         <v>272</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>273</v>
@@ -4535,7 +4541,7 @@
       </c>
       <c r="F126" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_SpellCritDamage</v>
+        <v>DOTA_HUD_SpellCrit</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4543,7 +4549,7 @@
         <v>274</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>275</v>
@@ -4556,7 +4562,7 @@
       </c>
       <c r="F127" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingTotalDamagePercent</v>
+        <v>DOTA_HUD_SpellCritDamage</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4564,7 +4570,7 @@
         <v>276</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>277</v>
@@ -4577,7 +4583,7 @@
       </c>
       <c r="F128" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingPhysicalDamagePercent</v>
+        <v>DOTA_HUD_IncomingTotalDamagePercent</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4585,7 +4591,7 @@
         <v>278</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>279</v>
@@ -4598,7 +4604,7 @@
       </c>
       <c r="F129" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingMagicalDamagePercent</v>
+        <v>DOTA_HUD_IncomingPhysicalDamagePercent</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4606,7 +4612,7 @@
         <v>280</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>281</v>
@@ -4619,7 +4625,7 @@
       </c>
       <c r="F130" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingPureDamagePercent</v>
+        <v>DOTA_HUD_IncomingMagicalDamagePercent</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4627,7 +4633,7 @@
         <v>282</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>283</v>
@@ -4640,7 +4646,7 @@
       </c>
       <c r="F131" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_LifeSteal</v>
+        <v>DOTA_HUD_IncomingPureDamagePercent</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4648,28 +4654,28 @@
         <v>284</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="D132" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F132" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_SpellLifeSteal</v>
+        <v>DOTA_HUD_LifeSteal</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>288</v>
@@ -4682,7 +4688,7 @@
       </c>
       <c r="F133" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCASTRANGE</v>
+        <v>DOTA_HUD_SpellLifeSteal</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4690,7 +4696,7 @@
         <v>289</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>290</v>
@@ -4703,7 +4709,7 @@
       </c>
       <c r="F134" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCASTPOINT</v>
+        <v>DOTA_HUD_ABILITYCASTRANGE</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4711,7 +4717,7 @@
         <v>291</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>292</v>
@@ -4724,7 +4730,7 @@
       </c>
       <c r="F135" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYDURATION</v>
+        <v>DOTA_HUD_ABILITYCASTPOINT</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4732,7 +4738,7 @@
         <v>293</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>294</v>
@@ -4745,7 +4751,7 @@
       </c>
       <c r="F136" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCHANNELTIME</v>
+        <v>DOTA_HUD_ABILITYDURATION</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4753,7 +4759,7 @@
         <v>295</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>296</v>
@@ -4766,7 +4772,7 @@
       </c>
       <c r="F137" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYDAMAGE</v>
+        <v>DOTA_HUD_ABILITYCHANNELTIME</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4774,7 +4780,7 @@
         <v>297</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>298</v>
@@ -4787,11 +4793,32 @@
       </c>
       <c r="F138" s="1" t="str">
         <f t="shared" si="3"/>
+        <v>DOTA_HUD_ABILITYDAMAGE</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F139" s="1" t="str">
+        <f t="shared" si="3"/>
         <v>DOTA_HUD_ABILITYCOOLDOWN</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="2"/>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4817,10 +4844,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4831,10 +4858,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -4845,27 +4872,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$261</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="348">
   <si>
     <t>主键</t>
   </si>
@@ -921,6 +921,117 @@
   </si>
   <si>
     <t>冷却时间</t>
+  </si>
+  <si>
+    <t>sellallitem</t>
+  </si>
+  <si>
+    <t>公共背包界面</t>
+  </si>
+  <si>
+    <t>出售所有</t>
+  </si>
+  <si>
+    <t>Buy2Bag</t>
+  </si>
+  <si>
+    <t>购买至背包</t>
+  </si>
+  <si>
+    <t>PublicBag</t>
+  </si>
+  <si>
+    <t>公共背包</t>
+  </si>
+  <si>
+    <t>PersonBag</t>
+  </si>
+  <si>
+    <t>个人背包</t>
+  </si>
+  <si>
+    <t>EquipCombine</t>
+  </si>
+  <si>
+    <t>装备合成</t>
+  </si>
+  <si>
+    <t>CombineEquipConfrimCant</t>
+  </si>
+  <si>
+    <t>无法合成</t>
+  </si>
+  <si>
+    <t>CombineEquipConfrim</t>
+  </si>
+  <si>
+    <t>确认合成</t>
+  </si>
+  <si>
+    <t>CombineEquipConfrimDesc</t>
+  </si>
+  <si>
+    <t>合成规则：三件相同等级的装备合成一件高等级的装备，但4星装备无法合成5星装备&lt;br&gt;定向合成(默认)：合成结果只会是三件当中的其中一件&lt;br&gt;随机合成（选中时）：合成结果会是任意装备</t>
+  </si>
+  <si>
+    <t>CombineEquipRandom</t>
+  </si>
+  <si>
+    <t>随机合成</t>
+  </si>
+  <si>
+    <t>CombineEquipNoAnimation</t>
+  </si>
+  <si>
+    <t>快速合成</t>
+  </si>
+  <si>
+    <t>CombineEquipNoAnimationDesc</t>
+  </si>
+  <si>
+    <t>跳过合成动画</t>
+  </si>
+  <si>
+    <t>GoldShop</t>
+  </si>
+  <si>
+    <t>金币商店</t>
+  </si>
+  <si>
+    <t>WoodShop</t>
+  </si>
+  <si>
+    <t>木材商店</t>
+  </si>
+  <si>
+    <t>RoundShop</t>
+  </si>
+  <si>
+    <t>回合商店</t>
+  </si>
+  <si>
+    <t>RandomShop</t>
+  </si>
+  <si>
+    <t>随机商店</t>
+  </si>
+  <si>
+    <t>RandomShopUnlock</t>
+  </si>
+  <si>
+    <t>将在{d:unlock_round}回合解锁</t>
+  </si>
+  <si>
+    <t>RandomShopTime</t>
+  </si>
+  <si>
+    <t>下次刷新时间： &lt;font color='#2A9BDC'&gt;{d:min}分{d:sec}秒&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>RandomShopRefresh</t>
+  </si>
+  <si>
+    <t>刷新商店</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1894,10 +2005,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -4817,8 +4928,383 @@
         <v>DOTA_HUD_ABILITYCOOLDOWN</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="2"/>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F140" s="1" t="str">
+        <f t="shared" ref="F140:F156" si="4">CONCATENATE("lang_",A140)</f>
+        <v>lang_sellallitem</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F141" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_Buy2Bag</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F142" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_PublicBag</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F143" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_PersonBag</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F144" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_EquipCombine</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F145" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_CombineEquipConfrimCant</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F146" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_CombineEquipConfrim</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F147" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_CombineEquipConfrimDesc</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F148" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_CombineEquipRandom</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F149" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_CombineEquipNoAnimation</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F150" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_CombineEquipNoAnimationDesc</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F151" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_GoldShop</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F152" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_WoodShop</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F153" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_RoundShop</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F154" s="1" t="str">
+        <f>CONCATENATE("lang_",A154)</f>
+        <v>lang_RandomShop</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F155" s="1" t="str">
+        <f>CONCATENATE("lang_",A155)</f>
+        <v>lang_RandomShopUnlock</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F156" s="1" t="str">
+        <f>CONCATENATE("lang_",A156)</f>
+        <v>lang_RandomShopTime</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F157" s="1" t="str">
+        <f>CONCATENATE("lang_",A157)</f>
+        <v>lang_RandomShopRefresh</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4844,10 +5330,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4858,10 +5344,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -4872,27 +5358,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="362">
   <si>
     <t>主键</t>
   </si>
@@ -1032,6 +1032,48 @@
   </si>
   <si>
     <t>刷新商店</t>
+  </si>
+  <si>
+    <t>Notification_Plus_Auto_Gold</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>{s:player_name}通过会员功能自动领取了工资。</t>
+  </si>
+  <si>
+    <t>Notification_Get_Item_from</t>
+  </si>
+  <si>
+    <t>{s:player_name}通过[{s:string_from}]获得了{s:item_get}</t>
+  </si>
+  <si>
+    <t>Notification_Interval_Prize_Gold</t>
+  </si>
+  <si>
+    <t>[{s:string_from}]:您获得了{s:coin_gold}</t>
+  </si>
+  <si>
+    <t>Notification_Interval_Prize_Wood</t>
+  </si>
+  <si>
+    <t>[{s:string_from}]:您获得了{s:coin_wood}</t>
+  </si>
+  <si>
+    <t>Notification_Interval_Prize_SoulCrystal</t>
+  </si>
+  <si>
+    <t>[{s:string_from}]:您获得了{s:coin_soulcrystal}</t>
+  </si>
+  <si>
+    <t>Module_15s_Prize</t>
+  </si>
+  <si>
+    <t>功能名称</t>
+  </si>
+  <si>
+    <t>15秒奖励</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -2005,10 +2047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160:E162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -4945,7 +4987,7 @@
         <v>303</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f t="shared" ref="F140:F156" si="4">CONCATENATE("lang_",A140)</f>
+        <f t="shared" ref="F140:F163" si="4">CONCATENATE("lang_",A140)</f>
         <v>lang_sellallitem</v>
       </c>
     </row>
@@ -5239,7 +5281,7 @@
         <v>331</v>
       </c>
       <c r="F154" s="1" t="str">
-        <f>CONCATENATE("lang_",A154)</f>
+        <f t="shared" si="4"/>
         <v>lang_RandomShop</v>
       </c>
     </row>
@@ -5260,7 +5302,7 @@
         <v>333</v>
       </c>
       <c r="F155" s="1" t="str">
-        <f>CONCATENATE("lang_",A155)</f>
+        <f t="shared" si="4"/>
         <v>lang_RandomShopUnlock</v>
       </c>
     </row>
@@ -5281,7 +5323,7 @@
         <v>335</v>
       </c>
       <c r="F156" s="1" t="str">
-        <f>CONCATENATE("lang_",A156)</f>
+        <f t="shared" si="4"/>
         <v>lang_RandomShopTime</v>
       </c>
     </row>
@@ -5302,8 +5344,134 @@
         <v>337</v>
       </c>
       <c r="F157" s="1" t="str">
-        <f>CONCATENATE("lang_",A157)</f>
+        <f t="shared" si="4"/>
         <v>lang_RandomShopRefresh</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F158" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_Notification_Plus_Auto_Gold</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F159" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_Notification_Get_Item_from</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F160" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_Notification_Interval_Prize_Gold</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F161" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_Notification_Interval_Prize_Wood</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F162" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_Notification_Interval_Prize_SoulCrystal</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F163" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>lang_Module_15s_Prize</v>
       </c>
     </row>
   </sheetData>
@@ -5330,10 +5498,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -5344,10 +5512,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -5358,27 +5526,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$262</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="366">
   <si>
     <t>主键</t>
   </si>
@@ -47,6 +47,12 @@
     <t>Des</t>
   </si>
   <si>
+    <t>addon_game_name</t>
+  </si>
+  <si>
+    <t>棋盘奇兵</t>
+  </si>
+  <si>
     <t>population</t>
   </si>
   <si>
@@ -1034,6 +1040,15 @@
     <t>刷新商店</t>
   </si>
   <si>
+    <t>Module_15s_Prize</t>
+  </si>
+  <si>
+    <t>功能名称</t>
+  </si>
+  <si>
+    <t>15秒奖励</t>
+  </si>
+  <si>
     <t>Notification_Plus_Auto_Gold</t>
   </si>
   <si>
@@ -1067,13 +1082,10 @@
     <t>[{s:string_from}]:您获得了{s:coin_soulcrystal}</t>
   </si>
   <si>
-    <t>Module_15s_Prize</t>
-  </si>
-  <si>
-    <t>功能名称</t>
-  </si>
-  <si>
-    <t>15秒奖励</t>
+    <t>Welcome_to_our_game</t>
+  </si>
+  <si>
+    <t>欢迎游玩&lt;font color='#ff8000'&gt;{s:string_from}&lt;/font&gt;</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -2047,10 +2059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160:E162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2107,100 +2119,99 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f>CONCATENATE("lang_",A7)</f>
-        <v>lang_soulcrystal</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2208,7 +2219,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -2221,7 +2232,7 @@
       </c>
       <c r="F8" s="1" t="str">
         <f>CONCATENATE("lang_",A8)</f>
-        <v>lang_TopBarRound</v>
+        <v>lang_soulcrystal</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2229,7 +2240,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
@@ -2242,7 +2253,7 @@
       </c>
       <c r="F9" s="1" t="str">
         <f>CONCATENATE("lang_",A9)</f>
-        <v>lang_TopBarDifficulty</v>
+        <v>lang_TopBarRound</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2250,7 +2261,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -2261,117 +2272,117 @@
       <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
+      <c r="F10" s="1" t="str">
+        <f>CONCATENATE("lang_",A10)</f>
+        <v>lang_TopBarDifficulty</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f t="shared" ref="F15:F28" si="0">CONCATENATE("lang_",A15)</f>
-        <v>lang_MenuButton_setting</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>47</v>
@@ -2383,8 +2394,8 @@
         <v>47</v>
       </c>
       <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>lang_MenuButton_mail</v>
+        <f t="shared" ref="F16:F29" si="0">CONCATENATE("lang_",A16)</f>
+        <v>lang_MenuButton_setting</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2392,7 +2403,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>49</v>
@@ -2405,7 +2416,7 @@
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_store</v>
+        <v>lang_MenuButton_mail</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2413,7 +2424,7 @@
         <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
@@ -2426,7 +2437,7 @@
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_battlepass</v>
+        <v>lang_MenuButton_store</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2434,7 +2445,7 @@
         <v>52</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>53</v>
@@ -2447,7 +2458,7 @@
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_draw</v>
+        <v>lang_MenuButton_battlepass</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2455,7 +2466,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>55</v>
@@ -2468,7 +2479,7 @@
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_handbook</v>
+        <v>lang_MenuButton_draw</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2476,7 +2487,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>57</v>
@@ -2489,7 +2500,7 @@
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_rank</v>
+        <v>lang_MenuButton_handbook</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2497,7 +2508,7 @@
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>59</v>
@@ -2510,7 +2521,7 @@
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_activity</v>
+        <v>lang_MenuButton_rank</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2518,7 +2529,7 @@
         <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>61</v>
@@ -2531,15 +2542,15 @@
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_record</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:6">
+        <v>lang_MenuButton_activity</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>63</v>
@@ -2552,36 +2563,36 @@
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_storage</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>lang_MenuButton_record</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_LevelChallenge</v>
+        <v>lang_MenuButton_storage</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>68</v>
@@ -2594,7 +2605,7 @@
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_tech</v>
+        <v>lang_LevelChallenge</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2602,7 +2613,7 @@
         <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>70</v>
@@ -2615,7 +2626,7 @@
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_bagshop</v>
+        <v>lang_tech</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2623,7 +2634,7 @@
         <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>72</v>
@@ -2636,7 +2647,7 @@
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_draw</v>
+        <v>lang_bagshop</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2644,28 +2655,28 @@
         <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="1" t="str">
-        <f t="shared" ref="F29:F92" si="1">CONCATENATE("lang_",A29)</f>
-        <v>lang_HUD_Shop_Home</v>
+        <f t="shared" si="0"/>
+        <v>lang_draw</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>77</v>
@@ -2677,8 +2688,8 @@
         <v>77</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Props</v>
+        <f t="shared" ref="F30:F93" si="1">CONCATENATE("lang_",A30)</f>
+        <v>lang_HUD_Shop_Home</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2686,7 +2697,7 @@
         <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>79</v>
@@ -2699,7 +2710,7 @@
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Resource</v>
+        <v>lang_HUD_Shop_Props</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2707,7 +2718,7 @@
         <v>80</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>81</v>
@@ -2720,7 +2731,7 @@
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Star</v>
+        <v>lang_HUD_Shop_Resource</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2728,7 +2739,7 @@
         <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>83</v>
@@ -2741,7 +2752,7 @@
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Chest</v>
+        <v>lang_HUD_Shop_Star</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2749,7 +2760,7 @@
         <v>84</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>85</v>
@@ -2762,7 +2773,7 @@
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_HotSale</v>
+        <v>lang_HUD_Shop_Chest</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2770,7 +2781,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>87</v>
@@ -2783,7 +2794,7 @@
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_DailyLimitedSale</v>
+        <v>lang_HUD_Shop_HotSale</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2791,7 +2802,7 @@
         <v>88</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>89</v>
@@ -2804,7 +2815,7 @@
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_LimitedSale</v>
+        <v>lang_HUD_Shop_DailyLimitedSale</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2812,7 +2823,7 @@
         <v>90</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>91</v>
@@ -2825,7 +2836,7 @@
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_LimitedSaleTime</v>
+        <v>lang_HUD_Shop_LimitedSale</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2833,7 +2844,7 @@
         <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>93</v>
@@ -2846,7 +2857,7 @@
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Free</v>
+        <v>lang_LimitedSaleTime</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2854,7 +2865,7 @@
         <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>95</v>
@@ -2867,7 +2878,7 @@
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Buy_With_Money</v>
+        <v>lang_Free</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2875,7 +2886,7 @@
         <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>97</v>
@@ -2888,7 +2899,7 @@
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Error_Star_Not_Enough</v>
+        <v>lang_Shop_Buy_With_Money</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2896,7 +2907,7 @@
         <v>98</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>99</v>
@@ -2909,7 +2920,7 @@
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Buy_Success</v>
+        <v>lang_Error_Star_Not_Enough</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2917,7 +2928,7 @@
         <v>100</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>101</v>
@@ -2930,7 +2941,7 @@
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Buy_Fail</v>
+        <v>lang_DialogBox_Buy_Success</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2938,7 +2949,7 @@
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>103</v>
@@ -2951,7 +2962,7 @@
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Get_Success</v>
+        <v>lang_DialogBox_Buy_Fail</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2959,7 +2970,7 @@
         <v>104</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>105</v>
@@ -2972,7 +2983,7 @@
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Get_Fail</v>
+        <v>lang_DialogBox_Get_Success</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2980,7 +2991,7 @@
         <v>106</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>107</v>
@@ -2993,7 +3004,7 @@
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Payment_PleaseWait</v>
+        <v>lang_DialogBox_Get_Fail</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3001,7 +3012,7 @@
         <v>108</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>109</v>
@@ -3014,7 +3025,7 @@
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Payment_WebPageOpened</v>
+        <v>lang_Payment_PleaseWait</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3022,7 +3033,7 @@
         <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>111</v>
@@ -3035,7 +3046,7 @@
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Payment_Create_Fail</v>
+        <v>lang_Payment_WebPageOpened</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3043,7 +3054,7 @@
         <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>113</v>
@@ -3056,7 +3067,7 @@
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_1</v>
+        <v>lang_Payment_Create_Fail</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3064,7 +3075,7 @@
         <v>114</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>115</v>
@@ -3077,7 +3088,7 @@
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_line_first</v>
+        <v>lang_Shop_Goods_1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3085,7 +3096,7 @@
         <v>116</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>117</v>
@@ -3098,7 +3109,7 @@
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_line</v>
+        <v>lang_Shop_Goods_line_first</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3106,7 +3117,7 @@
         <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>119</v>
@@ -3119,7 +3130,7 @@
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_0</v>
+        <v>lang_Shop_Goods_line</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3127,7 +3138,7 @@
         <v>120</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>121</v>
@@ -3140,7 +3151,7 @@
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_1</v>
+        <v>lang_Shop_Goods_limit_0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3148,7 +3159,7 @@
         <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>123</v>
@@ -3161,7 +3172,7 @@
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_2</v>
+        <v>lang_Shop_Goods_limit_1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3169,7 +3180,7 @@
         <v>124</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>125</v>
@@ -3182,7 +3193,7 @@
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_3</v>
+        <v>lang_Shop_Goods_limit_2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3190,7 +3201,7 @@
         <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>127</v>
@@ -3203,7 +3214,7 @@
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_4</v>
+        <v>lang_Shop_Goods_limit_3</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3211,7 +3222,7 @@
         <v>128</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>129</v>
@@ -3224,7 +3235,7 @@
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_5</v>
+        <v>lang_Shop_Goods_limit_4</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3232,7 +3243,7 @@
         <v>130</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>131</v>
@@ -3245,7 +3256,7 @@
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_6</v>
+        <v>lang_Shop_Goods_limit_5</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3253,7 +3264,7 @@
         <v>132</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>133</v>
@@ -3266,7 +3277,7 @@
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_CDK</v>
+        <v>lang_Shop_Goods_limit_6</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3274,7 +3285,7 @@
         <v>134</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>135</v>
@@ -3287,7 +3298,7 @@
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_CDKResult</v>
+        <v>lang_CDK</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3295,7 +3306,7 @@
         <v>136</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>137</v>
@@ -3308,7 +3319,7 @@
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_ExchangeProductResult</v>
+        <v>lang_CDKResult</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3316,49 +3327,49 @@
         <v>138</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_combination_rule</v>
+        <v>lang_ExchangeProductResult</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D62" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Yes</v>
+        <v>lang_combination_rule</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>145</v>
@@ -3371,7 +3382,7 @@
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_No</v>
+        <v>lang_DialogBox_Yes</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3379,7 +3390,7 @@
         <v>146</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>147</v>
@@ -3392,7 +3403,7 @@
       </c>
       <c r="F64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Rcv</v>
+        <v>lang_DialogBox_No</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3400,7 +3411,7 @@
         <v>148</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>149</v>
@@ -3413,7 +3424,7 @@
       </c>
       <c r="F65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Not_Again</v>
+        <v>lang_DialogBox_Rcv</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3421,7 +3432,7 @@
         <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>151</v>
@@ -3434,7 +3445,7 @@
       </c>
       <c r="F66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_ClickBlankClose</v>
+        <v>lang_DialogBox_Not_Again</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3442,7 +3453,7 @@
         <v>152</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>153</v>
@@ -3455,7 +3466,7 @@
       </c>
       <c r="F67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Buy</v>
+        <v>lang_ClickBlankClose</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3463,7 +3474,7 @@
         <v>154</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>155</v>
@@ -3476,7 +3487,7 @@
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_GotoOpen</v>
+        <v>lang_DialogBox_Buy</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3484,7 +3495,7 @@
         <v>156</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>157</v>
@@ -3497,7 +3508,7 @@
       </c>
       <c r="F69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_PleaseWait</v>
+        <v>lang_DialogBox_GotoOpen</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3505,28 +3516,28 @@
         <v>158</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_TimerTitle</v>
+        <v>lang_DialogBox_PleaseWait</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>162</v>
@@ -3539,7 +3550,7 @@
       </c>
       <c r="F71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Select_Difficulties</v>
+        <v>lang_TimerTitle</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3547,7 +3558,7 @@
         <v>163</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>164</v>
@@ -3560,7 +3571,7 @@
       </c>
       <c r="F72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Help_new_player</v>
+        <v>lang_Select_Difficulties</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3568,7 +3579,7 @@
         <v>165</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>166</v>
@@ -3581,7 +3592,7 @@
       </c>
       <c r="F73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_CourierSelectionTitle</v>
+        <v>lang_Help_new_player</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3589,7 +3600,7 @@
         <v>167</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>168</v>
@@ -3602,7 +3613,7 @@
       </c>
       <c r="F74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_PlayerNotReady</v>
+        <v>lang_CourierSelectionTitle</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3610,7 +3621,7 @@
         <v>169</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>170</v>
@@ -3623,7 +3634,7 @@
       </c>
       <c r="F75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Title</v>
+        <v>lang_PlayerNotReady</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3631,7 +3642,7 @@
         <v>171</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>172</v>
@@ -3644,7 +3655,7 @@
       </c>
       <c r="F76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Good</v>
+        <v>lang_Feedback_Title</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3652,7 +3663,7 @@
         <v>173</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>174</v>
@@ -3665,7 +3676,7 @@
       </c>
       <c r="F77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Bad</v>
+        <v>lang_Feedback_Good</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3673,7 +3684,7 @@
         <v>175</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>176</v>
@@ -3686,7 +3697,7 @@
       </c>
       <c r="F78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Placeholder</v>
+        <v>lang_Feedback_Bad</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3694,7 +3705,7 @@
         <v>177</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>178</v>
@@ -3707,7 +3718,7 @@
       </c>
       <c r="F79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Send</v>
+        <v>lang_Feedback_Placeholder</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3715,7 +3726,7 @@
         <v>179</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>180</v>
@@ -3728,7 +3739,7 @@
       </c>
       <c r="F80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Success</v>
+        <v>lang_Feedback_Send</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3736,7 +3747,7 @@
         <v>181</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>182</v>
@@ -3749,7 +3760,7 @@
       </c>
       <c r="F81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Failure</v>
+        <v>lang_Feedback_Success</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3757,7 +3768,7 @@
         <v>183</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>184</v>
@@ -3770,7 +3781,7 @@
       </c>
       <c r="F82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_FishManPublish</v>
+        <v>lang_Feedback_Failure</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3778,7 +3789,7 @@
         <v>185</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>186</v>
@@ -3791,7 +3802,7 @@
       </c>
       <c r="F83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_BugEmail</v>
+        <v>lang_FishManPublish</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3799,7 +3810,7 @@
         <v>187</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>188</v>
@@ -3812,7 +3823,7 @@
       </c>
       <c r="F84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DiscordLink</v>
+        <v>lang_BugEmail</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3820,7 +3831,7 @@
         <v>189</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>190</v>
@@ -3833,7 +3844,7 @@
       </c>
       <c r="F85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_0</v>
+        <v>lang_DiscordLink</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3841,7 +3852,7 @@
         <v>191</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>192</v>
@@ -3854,7 +3865,7 @@
       </c>
       <c r="F86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_0_Description</v>
+        <v>lang_Difficult_0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3862,7 +3873,7 @@
         <v>193</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>194</v>
@@ -3875,7 +3886,7 @@
       </c>
       <c r="F87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_1</v>
+        <v>lang_Difficult_0_Description</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3883,7 +3894,7 @@
         <v>195</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>196</v>
@@ -3896,7 +3907,7 @@
       </c>
       <c r="F88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_1_Description</v>
+        <v>lang_Difficult_1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3904,7 +3915,7 @@
         <v>197</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>198</v>
@@ -3917,7 +3928,7 @@
       </c>
       <c r="F89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_2</v>
+        <v>lang_Difficult_1_Description</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3925,7 +3936,7 @@
         <v>199</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>200</v>
@@ -3938,7 +3949,7 @@
       </c>
       <c r="F90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_2_Description</v>
+        <v>lang_Difficult_2</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3946,7 +3957,7 @@
         <v>201</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>202</v>
@@ -3959,7 +3970,7 @@
       </c>
       <c r="F91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_3</v>
+        <v>lang_Difficult_2_Description</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3967,7 +3978,7 @@
         <v>203</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>204</v>
@@ -3980,7 +3991,7 @@
       </c>
       <c r="F92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_3_Description</v>
+        <v>lang_Difficult_3</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3988,7 +3999,7 @@
         <v>205</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>206</v>
@@ -4000,8 +4011,8 @@
         <v>206</v>
       </c>
       <c r="F93" s="1" t="str">
-        <f>CONCATENATE("lang_",A93)</f>
-        <v>lang_Difficult_4</v>
+        <f t="shared" si="1"/>
+        <v>lang_Difficult_3_Description</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4009,7 +4020,7 @@
         <v>207</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>208</v>
@@ -4022,7 +4033,7 @@
       </c>
       <c r="F94" s="1" t="str">
         <f>CONCATENATE("lang_",A94)</f>
-        <v>lang_Difficult_4_Description</v>
+        <v>lang_Difficult_4</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4030,7 +4041,7 @@
         <v>209</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>210</v>
@@ -4042,8 +4053,8 @@
         <v>210</v>
       </c>
       <c r="F95" s="1" t="str">
-        <f t="shared" ref="F95:F101" si="2">CONCATENATE("lang_",A95)</f>
-        <v>lang_Difficult_5</v>
+        <f>CONCATENATE("lang_",A95)</f>
+        <v>lang_Difficult_4_Description</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4051,7 +4062,7 @@
         <v>211</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>212</v>
@@ -4063,8 +4074,8 @@
         <v>212</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>lang_Difficult_5_Description</v>
+        <f t="shared" ref="F96:F102" si="2">CONCATENATE("lang_",A96)</f>
+        <v>lang_Difficult_5</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4072,7 +4083,7 @@
         <v>213</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>214</v>
@@ -4085,7 +4096,7 @@
       </c>
       <c r="F97" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lang_Difficult_6</v>
+        <v>lang_Difficult_5_Description</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4093,7 +4104,7 @@
         <v>215</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>216</v>
@@ -4106,7 +4117,7 @@
       </c>
       <c r="F98" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lang_Difficult_6_Description</v>
+        <v>lang_Difficult_6</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4114,7 +4125,7 @@
         <v>217</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>218</v>
@@ -4127,7 +4138,7 @@
       </c>
       <c r="F99" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lang_Difficult_999</v>
+        <v>lang_Difficult_6_Description</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4135,7 +4146,7 @@
         <v>219</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>220</v>
@@ -4148,7 +4159,7 @@
       </c>
       <c r="F100" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lang_Difficult_999_Description</v>
+        <v>lang_Difficult_999</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4156,28 +4167,28 @@
         <v>221</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="D101" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F101" s="1" t="str">
-        <f>CONCATENATE("",A101)</f>
-        <v>UnitStatPanel_Primary_tip</v>
+        <f t="shared" si="2"/>
+        <v>lang_Difficult_999_Description</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>225</v>
@@ -4190,7 +4201,7 @@
       </c>
       <c r="F102" s="1" t="str">
         <f>CONCATENATE("",A102)</f>
-        <v>UnitStatPanel_Prop_PerLevel</v>
+        <v>UnitStatPanel_Primary_tip</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4198,7 +4209,7 @@
         <v>226</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>227</v>
@@ -4210,8 +4221,8 @@
         <v>227</v>
       </c>
       <c r="F103" s="1" t="str">
-        <f t="shared" ref="F103:F139" si="3">CONCATENATE("",A103)</f>
-        <v>DOTA_HUD_Strength_Custom</v>
+        <f>CONCATENATE("",A103)</f>
+        <v>UnitStatPanel_Prop_PerLevel</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4219,7 +4230,7 @@
         <v>228</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>229</v>
@@ -4231,8 +4242,8 @@
         <v>229</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>UnitStatPanel_StrengthDetails_Custom</v>
+        <f t="shared" ref="F104:F140" si="3">CONCATENATE("",A104)</f>
+        <v>DOTA_HUD_Strength_Custom</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4240,7 +4251,7 @@
         <v>230</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>231</v>
@@ -4253,7 +4264,7 @@
       </c>
       <c r="F105" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitStatPanel_StrengthDetails_Custom_Primary</v>
+        <v>UnitStatPanel_StrengthDetails_Custom</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4261,7 +4272,7 @@
         <v>232</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>233</v>
@@ -4274,7 +4285,7 @@
       </c>
       <c r="F106" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_Agility_Custom</v>
+        <v>UnitStatPanel_StrengthDetails_Custom_Primary</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4282,7 +4293,7 @@
         <v>234</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>235</v>
@@ -4295,7 +4306,7 @@
       </c>
       <c r="F107" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitStatPanel_AgilityDetails_Custom</v>
+        <v>DOTA_HUD_Agility_Custom</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4303,7 +4314,7 @@
         <v>236</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>237</v>
@@ -4316,7 +4327,7 @@
       </c>
       <c r="F108" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitStatPanel_AgilityDetails_Custom_Primary</v>
+        <v>UnitStatPanel_AgilityDetails_Custom</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4324,7 +4335,7 @@
         <v>238</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>239</v>
@@ -4337,7 +4348,7 @@
       </c>
       <c r="F109" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_Intellect_Custom</v>
+        <v>UnitStatPanel_AgilityDetails_Custom_Primary</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4345,7 +4356,7 @@
         <v>240</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>241</v>
@@ -4358,7 +4369,7 @@
       </c>
       <c r="F110" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitStatPanel_IntellectDetails_Custom</v>
+        <v>DOTA_HUD_Intellect_Custom</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4366,7 +4377,7 @@
         <v>242</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>243</v>
@@ -4379,7 +4390,7 @@
       </c>
       <c r="F111" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>UnitStatPanel_IntellectDetails_Custom_Primary</v>
+        <v>UnitStatPanel_IntellectDetails_Custom</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4387,7 +4398,7 @@
         <v>244</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>245</v>
@@ -4400,7 +4411,7 @@
       </c>
       <c r="F112" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_TotalDamagePercent</v>
+        <v>UnitStatPanel_IntellectDetails_Custom_Primary</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4408,7 +4419,7 @@
         <v>246</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>247</v>
@@ -4421,7 +4432,7 @@
       </c>
       <c r="F113" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_PhysicalDamagePercent</v>
+        <v>DOTA_HUD_TotalDamagePercent</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4429,7 +4440,7 @@
         <v>248</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>249</v>
@@ -4442,7 +4453,7 @@
       </c>
       <c r="F114" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_MagicalDamagePercent</v>
+        <v>DOTA_HUD_PhysicalDamagePercent</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4450,7 +4461,7 @@
         <v>250</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>251</v>
@@ -4463,7 +4474,7 @@
       </c>
       <c r="F115" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_PureDamagePercent</v>
+        <v>DOTA_HUD_MagicalDamagePercent</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4471,7 +4482,7 @@
         <v>252</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>253</v>
@@ -4484,7 +4495,7 @@
       </c>
       <c r="F116" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_PhysicalArmor_Custom</v>
+        <v>DOTA_HUD_PureDamagePercent</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4492,7 +4503,7 @@
         <v>254</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>255</v>
@@ -4505,7 +4516,7 @@
       </c>
       <c r="F117" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_MagicalArmor_Custom</v>
+        <v>DOTA_HUD_PhysicalArmor_Custom</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4513,7 +4524,7 @@
         <v>256</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>257</v>
@@ -4526,7 +4537,7 @@
       </c>
       <c r="F118" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Unit_Stats_Label_Outgoing</v>
+        <v>DOTA_HUD_MagicalArmor_Custom</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4534,7 +4545,7 @@
         <v>258</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>259</v>
@@ -4547,7 +4558,7 @@
       </c>
       <c r="F119" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>Unit_Stats_Label_Other</v>
+        <v>Unit_Stats_Label_Outgoing</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4555,7 +4566,7 @@
         <v>260</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>261</v>
@@ -4568,7 +4579,7 @@
       </c>
       <c r="F120" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IgnorePhysicalArmorPercent</v>
+        <v>Unit_Stats_Label_Other</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4576,7 +4587,7 @@
         <v>262</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>263</v>
@@ -4589,7 +4600,7 @@
       </c>
       <c r="F121" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IgnoreMagicalArmorPercent</v>
+        <v>DOTA_HUD_IgnorePhysicalArmorPercent</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4597,7 +4608,7 @@
         <v>264</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>265</v>
@@ -4610,7 +4621,7 @@
       </c>
       <c r="F122" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_CooldownReduction</v>
+        <v>DOTA_HUD_IgnoreMagicalArmorPercent</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4618,7 +4629,7 @@
         <v>266</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>267</v>
@@ -4631,7 +4642,7 @@
       </c>
       <c r="F123" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_EnergyRegen</v>
+        <v>DOTA_HUD_CooldownReduction</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4639,7 +4650,7 @@
         <v>268</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>269</v>
@@ -4652,7 +4663,7 @@
       </c>
       <c r="F124" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_AttackCrit</v>
+        <v>DOTA_HUD_EnergyRegen</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4660,7 +4671,7 @@
         <v>270</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>271</v>
@@ -4673,7 +4684,7 @@
       </c>
       <c r="F125" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_AttackCritDamage</v>
+        <v>DOTA_HUD_AttackCrit</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4681,7 +4692,7 @@
         <v>272</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>273</v>
@@ -4694,7 +4705,7 @@
       </c>
       <c r="F126" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_SpellCrit</v>
+        <v>DOTA_HUD_AttackCritDamage</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4702,7 +4713,7 @@
         <v>274</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>275</v>
@@ -4715,7 +4726,7 @@
       </c>
       <c r="F127" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_SpellCritDamage</v>
+        <v>DOTA_HUD_SpellCrit</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4723,7 +4734,7 @@
         <v>276</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>277</v>
@@ -4736,7 +4747,7 @@
       </c>
       <c r="F128" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingTotalDamagePercent</v>
+        <v>DOTA_HUD_SpellCritDamage</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4744,7 +4755,7 @@
         <v>278</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>279</v>
@@ -4757,7 +4768,7 @@
       </c>
       <c r="F129" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingPhysicalDamagePercent</v>
+        <v>DOTA_HUD_IncomingTotalDamagePercent</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4765,7 +4776,7 @@
         <v>280</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>281</v>
@@ -4778,7 +4789,7 @@
       </c>
       <c r="F130" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingMagicalDamagePercent</v>
+        <v>DOTA_HUD_IncomingPhysicalDamagePercent</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4786,7 +4797,7 @@
         <v>282</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>283</v>
@@ -4799,7 +4810,7 @@
       </c>
       <c r="F131" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_IncomingPureDamagePercent</v>
+        <v>DOTA_HUD_IncomingMagicalDamagePercent</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4807,7 +4818,7 @@
         <v>284</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>285</v>
@@ -4820,7 +4831,7 @@
       </c>
       <c r="F132" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_LifeSteal</v>
+        <v>DOTA_HUD_IncomingPureDamagePercent</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4828,28 +4839,28 @@
         <v>286</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="D133" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F133" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_SpellLifeSteal</v>
+        <v>DOTA_HUD_LifeSteal</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>290</v>
@@ -4862,7 +4873,7 @@
       </c>
       <c r="F134" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCASTRANGE</v>
+        <v>DOTA_HUD_SpellLifeSteal</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4870,7 +4881,7 @@
         <v>291</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>292</v>
@@ -4883,7 +4894,7 @@
       </c>
       <c r="F135" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCASTPOINT</v>
+        <v>DOTA_HUD_ABILITYCASTRANGE</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4891,7 +4902,7 @@
         <v>293</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>294</v>
@@ -4904,7 +4915,7 @@
       </c>
       <c r="F136" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYDURATION</v>
+        <v>DOTA_HUD_ABILITYCASTPOINT</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4912,7 +4923,7 @@
         <v>295</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>296</v>
@@ -4925,7 +4936,7 @@
       </c>
       <c r="F137" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCHANNELTIME</v>
+        <v>DOTA_HUD_ABILITYDURATION</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4933,7 +4944,7 @@
         <v>297</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>298</v>
@@ -4946,7 +4957,7 @@
       </c>
       <c r="F138" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYDAMAGE</v>
+        <v>DOTA_HUD_ABILITYCHANNELTIME</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4954,7 +4965,7 @@
         <v>299</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>300</v>
@@ -4967,36 +4978,36 @@
       </c>
       <c r="F139" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCOOLDOWN</v>
+        <v>DOTA_HUD_ABILITYDAMAGE</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="D140" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F140" s="1" t="str">
-        <f t="shared" ref="F140:F163" si="4">CONCATENATE("lang_",A140)</f>
-        <v>lang_sellallitem</v>
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_ABILITYCOOLDOWN</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>305</v>
@@ -5008,8 +5019,8 @@
         <v>305</v>
       </c>
       <c r="F141" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>lang_Buy2Bag</v>
+        <f t="shared" ref="F141:F164" si="4">CONCATENATE("lang_",A141)</f>
+        <v>lang_sellallitem</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5017,7 +5028,7 @@
         <v>306</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>307</v>
@@ -5030,7 +5041,7 @@
       </c>
       <c r="F142" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_PublicBag</v>
+        <v>lang_Buy2Bag</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5038,7 +5049,7 @@
         <v>308</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>309</v>
@@ -5051,7 +5062,7 @@
       </c>
       <c r="F143" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_PersonBag</v>
+        <v>lang_PublicBag</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5059,7 +5070,7 @@
         <v>310</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>311</v>
@@ -5072,7 +5083,7 @@
       </c>
       <c r="F144" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_EquipCombine</v>
+        <v>lang_PersonBag</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5080,7 +5091,7 @@
         <v>312</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>313</v>
@@ -5093,7 +5104,7 @@
       </c>
       <c r="F145" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_CombineEquipConfrimCant</v>
+        <v>lang_EquipCombine</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5101,7 +5112,7 @@
         <v>314</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>315</v>
@@ -5114,7 +5125,7 @@
       </c>
       <c r="F146" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_CombineEquipConfrim</v>
+        <v>lang_CombineEquipConfrimCant</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5122,7 +5133,7 @@
         <v>316</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>317</v>
@@ -5135,7 +5146,7 @@
       </c>
       <c r="F147" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_CombineEquipConfrimDesc</v>
+        <v>lang_CombineEquipConfrim</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5143,7 +5154,7 @@
         <v>318</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>319</v>
@@ -5156,7 +5167,7 @@
       </c>
       <c r="F148" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_CombineEquipRandom</v>
+        <v>lang_CombineEquipConfrimDesc</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5164,7 +5175,7 @@
         <v>320</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>321</v>
@@ -5177,7 +5188,7 @@
       </c>
       <c r="F149" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_CombineEquipNoAnimation</v>
+        <v>lang_CombineEquipRandom</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5185,7 +5196,7 @@
         <v>322</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>323</v>
@@ -5198,7 +5209,7 @@
       </c>
       <c r="F150" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_CombineEquipNoAnimationDesc</v>
+        <v>lang_CombineEquipNoAnimation</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5206,7 +5217,7 @@
         <v>324</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>325</v>
@@ -5219,7 +5230,7 @@
       </c>
       <c r="F151" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_GoldShop</v>
+        <v>lang_CombineEquipNoAnimationDesc</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5227,7 +5238,7 @@
         <v>326</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>327</v>
@@ -5240,7 +5251,7 @@
       </c>
       <c r="F152" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_WoodShop</v>
+        <v>lang_GoldShop</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5248,7 +5259,7 @@
         <v>328</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>329</v>
@@ -5261,7 +5272,7 @@
       </c>
       <c r="F153" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_RoundShop</v>
+        <v>lang_WoodShop</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5269,7 +5280,7 @@
         <v>330</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>331</v>
@@ -5282,7 +5293,7 @@
       </c>
       <c r="F154" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_RandomShop</v>
+        <v>lang_RoundShop</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5290,7 +5301,7 @@
         <v>332</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>333</v>
@@ -5303,7 +5314,7 @@
       </c>
       <c r="F155" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_RandomShopUnlock</v>
+        <v>lang_RandomShop</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5311,7 +5322,7 @@
         <v>334</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>335</v>
@@ -5324,7 +5335,7 @@
       </c>
       <c r="F156" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_RandomShopTime</v>
+        <v>lang_RandomShopUnlock</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5332,7 +5343,7 @@
         <v>336</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>337</v>
@@ -5345,36 +5356,36 @@
       </c>
       <c r="F157" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_RandomShopRefresh</v>
+        <v>lang_RandomShopTime</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="D158" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F158" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_Notification_Plus_Auto_Gold</v>
+        <v>lang_RandomShopRefresh</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>342</v>
@@ -5386,8 +5397,8 @@
         <v>342</v>
       </c>
       <c r="F159" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>lang_Notification_Get_Item_from</v>
+        <f>CONCATENATE("lang_",A159)</f>
+        <v>lang_Module_15s_Prize</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5395,70 +5406,70 @@
         <v>343</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F160" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>lang_Notification_Interval_Prize_Gold</v>
+        <f t="shared" ref="F160:F165" si="5">CONCATENATE("lang_",A160)</f>
+        <v>lang_Notification_Plus_Auto_Gold</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F161" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>lang_Notification_Interval_Prize_Wood</v>
+        <f t="shared" si="5"/>
+        <v>lang_Notification_Get_Item_from</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F162" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>lang_Notification_Interval_Prize_SoulCrystal</v>
+        <f t="shared" si="5"/>
+        <v>lang_Notification_Interval_Prize_Gold</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>351</v>
@@ -5470,8 +5481,50 @@
         <v>351</v>
       </c>
       <c r="F163" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>lang_Module_15s_Prize</v>
+        <f t="shared" si="5"/>
+        <v>lang_Notification_Interval_Prize_Wood</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F164" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_Notification_Interval_Prize_SoulCrystal</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F165" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_Welcome_to_our_game</v>
       </c>
     </row>
   </sheetData>
@@ -5498,10 +5551,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -5512,10 +5565,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -5526,27 +5579,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$262</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$263</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="369">
   <si>
     <t>主键</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>棋盘奇兵</t>
+  </si>
+  <si>
+    <t>Ability_JinDu</t>
+  </si>
+  <si>
+    <t>技能面板</t>
+  </si>
+  <si>
+    <t>进度：&lt;font color='#EEEEEE'&gt;{d:now}&lt;/font&gt;/&lt;font color='#EEEEEE'&gt;{d:max}&lt;/font&gt;</t>
   </si>
   <si>
     <t>population</t>
@@ -2059,10 +2068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2150,16 +2159,17 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
+      <c r="F4" s="1" t="str">
+        <f>CONCATENATE("lang_",A4)</f>
+        <v>lang_Ability_JinDu</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -2179,7 +2189,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
@@ -2194,12 +2204,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -2219,7 +2229,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
@@ -2230,71 +2240,71 @@
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="1" t="str">
-        <f>CONCATENATE("lang_",A8)</f>
-        <v>lang_soulcrystal</v>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="str">
         <f>CONCATENATE("lang_",A9)</f>
-        <v>lang_TopBarRound</v>
+        <v>lang_soulcrystal</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="str">
         <f>CONCATENATE("lang_",A10)</f>
-        <v>lang_TopBarDifficulty</v>
+        <v>lang_TopBarRound</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>CONCATENATE("lang_",A11)</f>
+        <v>lang_TopBarDifficulty</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2302,7 +2312,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>34</v>
@@ -2322,7 +2332,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
@@ -2342,7 +2352,7 @@
         <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>40</v>
@@ -2362,7 +2372,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>43</v>
@@ -2382,20 +2392,19 @@
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="1" t="str">
-        <f t="shared" ref="F16:F29" si="0">CONCATENATE("lang_",A16)</f>
-        <v>lang_MenuButton_setting</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2403,209 +2412,209 @@
         <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" ref="F17:F30" si="0">CONCATENATE("lang_",A17)</f>
+        <v>lang_MenuButton_setting</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="1" t="str">
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_mail</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="1" t="str">
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_store</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="1" t="str">
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_battlepass</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="1" t="str">
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_draw</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="1" t="str">
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_handbook</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="1" t="str">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_rank</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="1" t="str">
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_activity</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="1" t="str">
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_record</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="1" t="str">
+    <row r="26" s="1" customFormat="1" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>lang_MenuButton_storage</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>lang_LevelChallenge</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2613,70 +2622,70 @@
         <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_tech</v>
+        <v>lang_LevelChallenge</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_bagshop</v>
+        <v>lang_tech</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_draw</v>
+        <v>lang_bagshop</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>77</v>
@@ -2688,8 +2697,8 @@
         <v>77</v>
       </c>
       <c r="F30" s="1" t="str">
-        <f t="shared" ref="F30:F93" si="1">CONCATENATE("lang_",A30)</f>
-        <v>lang_HUD_Shop_Home</v>
+        <f t="shared" si="0"/>
+        <v>lang_draw</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2697,658 +2706,658 @@
         <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Props</v>
+        <f t="shared" ref="F31:F94" si="1">CONCATENATE("lang_",A31)</f>
+        <v>lang_HUD_Shop_Home</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Resource</v>
+        <v>lang_HUD_Shop_Props</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Star</v>
+        <v>lang_HUD_Shop_Resource</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Chest</v>
+        <v>lang_HUD_Shop_Star</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_HotSale</v>
+        <v>lang_HUD_Shop_Chest</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_DailyLimitedSale</v>
+        <v>lang_HUD_Shop_HotSale</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_LimitedSale</v>
+        <v>lang_HUD_Shop_DailyLimitedSale</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_LimitedSaleTime</v>
+        <v>lang_HUD_Shop_LimitedSale</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Free</v>
+        <v>lang_LimitedSaleTime</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Buy_With_Money</v>
+        <v>lang_Free</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Error_Star_Not_Enough</v>
+        <v>lang_Shop_Buy_With_Money</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Buy_Success</v>
+        <v>lang_Error_Star_Not_Enough</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F43" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Buy_Fail</v>
+        <v>lang_DialogBox_Buy_Success</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F44" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Get_Success</v>
+        <v>lang_DialogBox_Buy_Fail</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Get_Fail</v>
+        <v>lang_DialogBox_Get_Success</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F46" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Payment_PleaseWait</v>
+        <v>lang_DialogBox_Get_Fail</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Payment_WebPageOpened</v>
+        <v>lang_Payment_PleaseWait</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F48" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Payment_Create_Fail</v>
+        <v>lang_Payment_WebPageOpened</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_1</v>
+        <v>lang_Payment_Create_Fail</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F50" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_line_first</v>
+        <v>lang_Shop_Goods_1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F51" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_line</v>
+        <v>lang_Shop_Goods_line_first</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F52" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_0</v>
+        <v>lang_Shop_Goods_line</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_1</v>
+        <v>lang_Shop_Goods_limit_0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F54" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_2</v>
+        <v>lang_Shop_Goods_limit_1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F55" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_3</v>
+        <v>lang_Shop_Goods_limit_2</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_4</v>
+        <v>lang_Shop_Goods_limit_3</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F57" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_5</v>
+        <v>lang_Shop_Goods_limit_4</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F58" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Shop_Goods_limit_6</v>
+        <v>lang_Shop_Goods_limit_5</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_CDK</v>
+        <v>lang_Shop_Goods_limit_6</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_CDKResult</v>
+        <v>lang_CDK</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_ExchangeProductResult</v>
+        <v>lang_CDKResult</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>142</v>
@@ -3361,7 +3370,7 @@
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_combination_rule</v>
+        <v>lang_ExchangeProductResult</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3382,7 +3391,7 @@
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Yes</v>
+        <v>lang_combination_rule</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3390,154 +3399,154 @@
         <v>146</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F64" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_No</v>
+        <v>lang_DialogBox_Yes</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Rcv</v>
+        <v>lang_DialogBox_No</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F66" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Not_Again</v>
+        <v>lang_DialogBox_Rcv</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F67" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_ClickBlankClose</v>
+        <v>lang_DialogBox_Not_Again</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_Buy</v>
+        <v>lang_ClickBlankClose</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F69" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_GotoOpen</v>
+        <v>lang_DialogBox_Buy</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DialogBox_PleaseWait</v>
+        <v>lang_DialogBox_GotoOpen</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>162</v>
@@ -3550,7 +3559,7 @@
       </c>
       <c r="F71" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_TimerTitle</v>
+        <v>lang_DialogBox_PleaseWait</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3558,650 +3567,650 @@
         <v>163</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F72" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Select_Difficulties</v>
+        <v>lang_TimerTitle</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F73" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Help_new_player</v>
+        <v>lang_Select_Difficulties</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F74" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_CourierSelectionTitle</v>
+        <v>lang_Help_new_player</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F75" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_PlayerNotReady</v>
+        <v>lang_CourierSelectionTitle</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F76" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Title</v>
+        <v>lang_PlayerNotReady</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F77" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Good</v>
+        <v>lang_Feedback_Title</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F78" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Bad</v>
+        <v>lang_Feedback_Good</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F79" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Placeholder</v>
+        <v>lang_Feedback_Bad</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F80" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Send</v>
+        <v>lang_Feedback_Placeholder</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F81" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Success</v>
+        <v>lang_Feedback_Send</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F82" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Feedback_Failure</v>
+        <v>lang_Feedback_Success</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F83" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_FishManPublish</v>
+        <v>lang_Feedback_Failure</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F84" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_BugEmail</v>
+        <v>lang_FishManPublish</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F85" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_DiscordLink</v>
+        <v>lang_BugEmail</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F86" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_0</v>
+        <v>lang_DiscordLink</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F87" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_0_Description</v>
+        <v>lang_Difficult_0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F88" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_1</v>
+        <v>lang_Difficult_0_Description</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F89" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_1_Description</v>
+        <v>lang_Difficult_1</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F90" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_2</v>
+        <v>lang_Difficult_1_Description</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F91" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_2_Description</v>
+        <v>lang_Difficult_2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F92" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_3</v>
+        <v>lang_Difficult_2_Description</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F93" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>lang_Difficult_3_Description</v>
+        <v>lang_Difficult_3</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F94" s="1" t="str">
-        <f>CONCATENATE("lang_",A94)</f>
-        <v>lang_Difficult_4</v>
+        <f t="shared" si="1"/>
+        <v>lang_Difficult_3_Description</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F95" s="1" t="str">
         <f>CONCATENATE("lang_",A95)</f>
-        <v>lang_Difficult_4_Description</v>
+        <v>lang_Difficult_4</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F96" s="1" t="str">
-        <f t="shared" ref="F96:F102" si="2">CONCATENATE("lang_",A96)</f>
-        <v>lang_Difficult_5</v>
+        <f>CONCATENATE("lang_",A96)</f>
+        <v>lang_Difficult_4_Description</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F97" s="1" t="str">
+        <f t="shared" ref="F97:F103" si="2">CONCATENATE("lang_",A97)</f>
+        <v>lang_Difficult_5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F98" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_5_Description</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F98" s="1" t="str">
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F99" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_6</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F99" s="1" t="str">
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F100" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_6_Description</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F100" s="1" t="str">
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F101" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_999</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F101" s="1" t="str">
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F102" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_999_Description</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F102" s="1" t="str">
-        <f>CONCATENATE("",A102)</f>
-        <v>UnitStatPanel_Primary_tip</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4209,671 +4218,671 @@
         <v>226</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F103" s="1" t="str">
         <f>CONCATENATE("",A103)</f>
-        <v>UnitStatPanel_Prop_PerLevel</v>
+        <v>UnitStatPanel_Primary_tip</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F104" s="1" t="str">
-        <f t="shared" ref="F104:F140" si="3">CONCATENATE("",A104)</f>
-        <v>DOTA_HUD_Strength_Custom</v>
+        <f>CONCATENATE("",A104)</f>
+        <v>UnitStatPanel_Prop_PerLevel</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F105" s="1" t="str">
+        <f t="shared" ref="F105:F141" si="3">CONCATENATE("",A105)</f>
+        <v>DOTA_HUD_Strength_Custom</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F106" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_StrengthDetails_Custom</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F106" s="1" t="str">
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F107" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_StrengthDetails_Custom_Primary</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F107" s="1" t="str">
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F108" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_Agility_Custom</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F108" s="1" t="str">
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F109" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_AgilityDetails_Custom</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F109" s="1" t="str">
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F110" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_AgilityDetails_Custom_Primary</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F110" s="1" t="str">
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F111" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_Intellect_Custom</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F111" s="1" t="str">
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F112" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_IntellectDetails_Custom</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F112" s="1" t="str">
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F113" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_IntellectDetails_Custom_Primary</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F113" s="1" t="str">
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F114" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_TotalDamagePercent</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F114" s="1" t="str">
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F115" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_PhysicalDamagePercent</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F115" s="1" t="str">
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F116" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_MagicalDamagePercent</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F116" s="1" t="str">
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F117" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_PureDamagePercent</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F117" s="1" t="str">
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F118" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_PhysicalArmor_Custom</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F118" s="1" t="str">
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F119" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_MagicalArmor_Custom</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F119" s="1" t="str">
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F120" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Unit_Stats_Label_Outgoing</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F120" s="1" t="str">
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F121" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Unit_Stats_Label_Other</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F121" s="1" t="str">
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F122" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IgnorePhysicalArmorPercent</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F122" s="1" t="str">
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F123" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IgnoreMagicalArmorPercent</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F123" s="1" t="str">
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F124" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_CooldownReduction</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F124" s="1" t="str">
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F125" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_EnergyRegen</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F125" s="1" t="str">
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F126" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_AttackCrit</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F126" s="1" t="str">
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F127" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_AttackCritDamage</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F127" s="1" t="str">
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F128" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_SpellCrit</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F128" s="1" t="str">
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F129" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_SpellCritDamage</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F129" s="1" t="str">
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F130" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IncomingTotalDamagePercent</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F130" s="1" t="str">
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F131" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IncomingPhysicalDamagePercent</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F131" s="1" t="str">
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F132" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IncomingMagicalDamagePercent</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F132" s="1" t="str">
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F133" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IncomingPureDamagePercent</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F133" s="1" t="str">
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F134" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_LifeSteal</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F134" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DOTA_HUD_SpellLifeSteal</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4881,133 +4890,133 @@
         <v>291</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F135" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCASTRANGE</v>
+        <v>DOTA_HUD_SpellLifeSteal</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F136" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCASTPOINT</v>
+        <v>DOTA_HUD_ABILITYCASTRANGE</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F137" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYDURATION</v>
+        <v>DOTA_HUD_ABILITYCASTPOINT</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F138" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCHANNELTIME</v>
+        <v>DOTA_HUD_ABILITYDURATION</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F139" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYDAMAGE</v>
+        <v>DOTA_HUD_ABILITYCHANNELTIME</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F140" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DOTA_HUD_ABILITYCOOLDOWN</v>
+        <v>DOTA_HUD_ABILITYDAMAGE</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B141" s="2" t="s">
         <v>304</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>305</v>
@@ -5019,8 +5028,8 @@
         <v>305</v>
       </c>
       <c r="F141" s="1" t="str">
-        <f t="shared" ref="F141:F164" si="4">CONCATENATE("lang_",A141)</f>
-        <v>lang_sellallitem</v>
+        <f t="shared" si="3"/>
+        <v>DOTA_HUD_ABILITYCOOLDOWN</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5028,377 +5037,377 @@
         <v>306</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C142" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F142" s="1" t="str">
+        <f t="shared" ref="F142:F165" si="4">CONCATENATE("lang_",A142)</f>
+        <v>lang_sellallitem</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F142" s="1" t="str">
+      <c r="C143" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F143" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_Buy2Bag</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F143" s="1" t="str">
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F144" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_PublicBag</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F144" s="1" t="str">
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F145" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_PersonBag</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F145" s="1" t="str">
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F146" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_EquipCombine</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F146" s="1" t="str">
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F147" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipConfrimCant</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F147" s="1" t="str">
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F148" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipConfrim</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="F148" s="1" t="str">
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F149" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipConfrimDesc</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F149" s="1" t="str">
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F150" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipRandom</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="F150" s="1" t="str">
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F151" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipNoAnimation</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="F151" s="1" t="str">
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F152" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipNoAnimationDesc</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F152" s="1" t="str">
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F153" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_GoldShop</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F153" s="1" t="str">
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F154" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_WoodShop</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F154" s="1" t="str">
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F155" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_RoundShop</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F155" s="1" t="str">
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F156" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_RandomShop</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F156" s="1" t="str">
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F157" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_RandomShopUnlock</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F157" s="1" t="str">
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F158" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_RandomShopTime</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F158" s="1" t="str">
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F159" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_RandomShopRefresh</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F159" s="1" t="str">
-        <f>CONCATENATE("lang_",A159)</f>
-        <v>lang_Module_15s_Prize</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5418,8 +5427,8 @@
         <v>345</v>
       </c>
       <c r="F160" s="1" t="str">
-        <f t="shared" ref="F160:F165" si="5">CONCATENATE("lang_",A160)</f>
-        <v>lang_Notification_Plus_Auto_Gold</v>
+        <f t="shared" si="4"/>
+        <v>lang_Module_15s_Prize</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5427,102 +5436,123 @@
         <v>346</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C161" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F161" s="1" t="str">
+        <f t="shared" ref="F161:F166" si="5">CONCATENATE("lang_",A161)</f>
+        <v>lang_Notification_Plus_Auto_Gold</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="F161" s="1" t="str">
+      <c r="C162" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F162" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Notification_Get_Item_from</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F162" s="1" t="str">
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F163" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Notification_Interval_Prize_Gold</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F163" s="1" t="str">
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F164" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Notification_Interval_Prize_Wood</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F164" s="1" t="str">
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F165" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Notification_Interval_Prize_SoulCrystal</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F165" s="1" t="str">
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="F166" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Welcome_to_our_game</v>
       </c>
@@ -5551,10 +5581,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -5565,10 +5595,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -5579,27 +5609,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$294</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="416">
   <si>
     <t>主键</t>
   </si>
@@ -107,6 +107,12 @@
     <t>魂晶</t>
   </si>
   <si>
+    <t>InscriptionExp</t>
+  </si>
+  <si>
+    <t>铭文碎片</t>
+  </si>
+  <si>
     <t>TopBarRound</t>
   </si>
   <si>
@@ -252,6 +258,141 @@
   </si>
   <si>
     <t>抽卡</t>
+  </si>
+  <si>
+    <t>HandBook_ShaiXuan</t>
+  </si>
+  <si>
+    <t>图鉴-HERO</t>
+  </si>
+  <si>
+    <t>筛选：</t>
+  </si>
+  <si>
+    <t>HandBook_SumHeroLevel</t>
+  </si>
+  <si>
+    <t>英雄总等级：</t>
+  </si>
+  <si>
+    <t>HandBook_ComHeroExp</t>
+  </si>
+  <si>
+    <t>通用英雄经验：</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>wearable</t>
+  </si>
+  <si>
+    <t>皮肤</t>
+  </si>
+  <si>
+    <t>courier</t>
+  </si>
+  <si>
+    <t>信使</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>artifact</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>faq</t>
+  </si>
+  <si>
+    <t>常见问题</t>
+  </si>
+  <si>
+    <t>HandBook_EquipRarityTitle</t>
+  </si>
+  <si>
+    <t>图鉴-Equip</t>
+  </si>
+  <si>
+    <t>{s:rarity}级装备</t>
+  </si>
+  <si>
+    <t>FAQ_Question_1</t>
+  </si>
+  <si>
+    <t>图鉴-FAQ</t>
+  </si>
+  <si>
+    <t>野怪悬赏回合失败了会怎么样？会因此少一个英雄装备吗？</t>
+  </si>
+  <si>
+    <t>FAQ_Answer_1</t>
+  </si>
+  <si>
+    <t>野怪悬赏回合失败后，失败的玩家将因此受到对应野怪造成的伤害，获得败补以及对应该回合悬赏中最左侧野怪的等级的随机装备。</t>
+  </si>
+  <si>
+    <t>FAQ_Question_2</t>
+  </si>
+  <si>
+    <t>FAQ_Answer_2</t>
+  </si>
+  <si>
+    <t>FAQ_Question_3</t>
+  </si>
+  <si>
+    <t>FAQ_Answer_3</t>
+  </si>
+  <si>
+    <t>FAQ_Question_4</t>
+  </si>
+  <si>
+    <t>FAQ_Answer_4</t>
+  </si>
+  <si>
+    <t>FAQ_Question_5</t>
+  </si>
+  <si>
+    <t>FAQ_Answer_5</t>
+  </si>
+  <si>
+    <t>FAQ_Question_6</t>
+  </si>
+  <si>
+    <t>FAQ_Answer_6</t>
+  </si>
+  <si>
+    <t>FAQ_Question_7</t>
+  </si>
+  <si>
+    <t>FAQ_Answer_7</t>
+  </si>
+  <si>
+    <t>FAQ_Question_8</t>
+  </si>
+  <si>
+    <t>FAQ_Answer_8</t>
+  </si>
+  <si>
+    <t>FAQ_Question_9</t>
+  </si>
+  <si>
+    <t>FAQ_Answer_9</t>
+  </si>
+  <si>
+    <t>FAQ_Question_10</t>
+  </si>
+  <si>
+    <t>FAQ_Answer_10</t>
   </si>
   <si>
     <t>HUD_Shop_Home</t>
@@ -1137,7 +1278,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1151,6 +1292,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1603,10 +1750,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1615,34 +1762,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1654,101 +1798,110 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2068,10 +2221,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F166"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2283,7 +2436,7 @@
       </c>
       <c r="F10" s="1" t="str">
         <f>CONCATENATE("lang_",A10)</f>
-        <v>lang_TopBarRound</v>
+        <v>lang_InscriptionExp</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2304,7 +2457,7 @@
       </c>
       <c r="F11" s="1" t="str">
         <f>CONCATENATE("lang_",A11)</f>
-        <v>lang_TopBarDifficulty</v>
+        <v>lang_TopBarRound</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2323,117 +2476,117 @@
       <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>35</v>
+      <c r="F12" s="1" t="str">
+        <f>CONCATENATE("lang_",A12)</f>
+        <v>lang_TopBarDifficulty</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1" t="str">
-        <f t="shared" ref="F17:F30" si="0">CONCATENATE("lang_",A17)</f>
-        <v>lang_MenuButton_setting</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>52</v>
@@ -2445,8 +2598,8 @@
         <v>52</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>lang_MenuButton_mail</v>
+        <f t="shared" ref="F18:F60" si="0">CONCATENATE("lang_",A18)</f>
+        <v>lang_MenuButton_setting</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2454,7 +2607,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>54</v>
@@ -2467,7 +2620,7 @@
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_store</v>
+        <v>lang_MenuButton_mail</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2475,7 +2628,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>56</v>
@@ -2488,7 +2641,7 @@
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_battlepass</v>
+        <v>lang_MenuButton_store</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2496,7 +2649,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>58</v>
@@ -2509,7 +2662,7 @@
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_draw</v>
+        <v>lang_MenuButton_battlepass</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2517,7 +2670,7 @@
         <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>60</v>
@@ -2530,7 +2683,7 @@
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_handbook</v>
+        <v>lang_MenuButton_draw</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2538,7 +2691,7 @@
         <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>62</v>
@@ -2551,7 +2704,7 @@
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_rank</v>
+        <v>lang_MenuButton_handbook</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2559,7 +2712,7 @@
         <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>64</v>
@@ -2572,7 +2725,7 @@
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_activity</v>
+        <v>lang_MenuButton_rank</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2580,7 +2733,7 @@
         <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>66</v>
@@ -2593,15 +2746,15 @@
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_record</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
+        <v>lang_MenuButton_activity</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>68</v>
@@ -2614,36 +2767,36 @@
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_MenuButton_storage</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>lang_MenuButton_record</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_LevelChallenge</v>
+        <v>lang_MenuButton_storage</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>73</v>
@@ -2656,7 +2809,7 @@
       </c>
       <c r="F28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_tech</v>
+        <v>lang_LevelChallenge</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2664,7 +2817,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>75</v>
@@ -2677,7 +2830,7 @@
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_bagshop</v>
+        <v>lang_tech</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2685,7 +2838,7 @@
         <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>77</v>
@@ -2698,7 +2851,7 @@
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>lang_draw</v>
+        <v>lang_bagshop</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2706,28 +2859,28 @@
         <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1" t="str">
-        <f t="shared" ref="F31:F94" si="1">CONCATENATE("lang_",A31)</f>
-        <v>lang_HUD_Shop_Home</v>
+        <f t="shared" si="0"/>
+        <v>lang_draw</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>82</v>
@@ -2739,8 +2892,8 @@
         <v>82</v>
       </c>
       <c r="F32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Props</v>
+        <f t="shared" si="0"/>
+        <v>lang_HandBook_ShaiXuan</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2748,7 +2901,7 @@
         <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>84</v>
@@ -2760,8 +2913,8 @@
         <v>84</v>
       </c>
       <c r="F33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Resource</v>
+        <f t="shared" si="0"/>
+        <v>lang_HandBook_SumHeroLevel</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2769,7 +2922,7 @@
         <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>86</v>
@@ -2781,8 +2934,8 @@
         <v>86</v>
       </c>
       <c r="F34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>lang_HUD_Shop_Star</v>
+        <f t="shared" si="0"/>
+        <v>lang_HandBook_ComHeroExp</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2790,7 +2943,7 @@
         <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>88</v>
@@ -2802,2757 +2955,3408 @@
         <v>88</v>
       </c>
       <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_hero</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_wearable</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_courier</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_equip</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_artifact</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_faq</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>lang_HandBook_EquipRarityTitle</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f>CONCATENATE("lang_",A42)</f>
+        <v>lang_FAQ_Question_1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f>CONCATENATE("lang_",A43)</f>
+        <v>lang_FAQ_Answer_1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f>CONCATENATE("lang_",A44)</f>
+        <v>lang_FAQ_Question_2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f>CONCATENATE("lang_",A45)</f>
+        <v>lang_FAQ_Answer_2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f>CONCATENATE("lang_",A46)</f>
+        <v>lang_FAQ_Question_3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f>CONCATENATE("lang_",A47)</f>
+        <v>lang_FAQ_Answer_3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f>CONCATENATE("lang_",A48)</f>
+        <v>lang_FAQ_Question_4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f>CONCATENATE("lang_",A49)</f>
+        <v>lang_FAQ_Answer_4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f>CONCATENATE("lang_",A50)</f>
+        <v>lang_FAQ_Question_5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f>CONCATENATE("lang_",A51)</f>
+        <v>lang_FAQ_Answer_5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f>CONCATENATE("lang_",A52)</f>
+        <v>lang_FAQ_Question_6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f>CONCATENATE("lang_",A53)</f>
+        <v>lang_FAQ_Answer_6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f>CONCATENATE("lang_",A54)</f>
+        <v>lang_FAQ_Question_7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f>CONCATENATE("lang_",A55)</f>
+        <v>lang_FAQ_Answer_7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f>CONCATENATE("lang_",A56)</f>
+        <v>lang_FAQ_Question_8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f>CONCATENATE("lang_",A57)</f>
+        <v>lang_FAQ_Answer_8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f>CONCATENATE("lang_",A58)</f>
+        <v>lang_FAQ_Question_9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f>CONCATENATE("lang_",A59)</f>
+        <v>lang_FAQ_Answer_9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f>CONCATENATE("lang_",A60)</f>
+        <v>lang_FAQ_Question_10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f>CONCATENATE("lang_",A61)</f>
+        <v>lang_FAQ_Answer_10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f t="shared" ref="F62:F125" si="1">CONCATENATE("lang_",A62)</f>
+        <v>lang_HUD_Shop_Home</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_HUD_Shop_Props</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_HUD_Shop_Resource</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>lang_HUD_Shop_Star</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_HUD_Shop_Chest</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="1" t="str">
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F67" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_HUD_Shop_HotSale</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="1" t="str">
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_HUD_Shop_DailyLimitedSale</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="1" t="str">
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_HUD_Shop_LimitedSale</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="1" t="str">
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_LimitedSaleTime</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="1" t="str">
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Free</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="1" t="str">
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Buy_With_Money</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="1" t="str">
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Error_Star_Not_Enough</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F43" s="1" t="str">
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_Buy_Success</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44" s="1" t="str">
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_Buy_Fail</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="1" t="str">
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_Get_Success</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F46" s="1" t="str">
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_Get_Fail</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="1" t="str">
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Payment_PleaseWait</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F48" s="1" t="str">
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Payment_WebPageOpened</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" s="1" t="str">
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Payment_Create_Fail</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F50" s="1" t="str">
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Goods_1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" s="1" t="str">
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Goods_line_first</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52" s="1" t="str">
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Goods_line</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="1" t="str">
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Goods_limit_0</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="2" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F54" s="1" t="str">
+      <c r="C85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Goods_limit_1</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="1" t="str">
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Goods_limit_2</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" s="1" t="str">
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Goods_limit_3</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="1" t="str">
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Goods_limit_4</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F58" s="1" t="str">
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Goods_limit_5</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" s="1" t="str">
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Shop_Goods_limit_6</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F60" s="1" t="str">
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_CDK</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F61" s="1" t="str">
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_CDKResult</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F62" s="1" t="str">
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_ExchangeProductResult</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F63" s="1" t="str">
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_combination_rule</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F64" s="1" t="str">
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_Yes</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F65" s="1" t="str">
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_No</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F66" s="1" t="str">
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_Rcv</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F67" s="1" t="str">
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_Not_Again</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F68" s="1" t="str">
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_ClickBlankClose</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F69" s="1" t="str">
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_Buy</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" s="1" t="str">
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F101" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_GotoOpen</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F71" s="1" t="str">
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DialogBox_PleaseWait</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F72" s="1" t="str">
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F103" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_TimerTitle</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F73" s="1" t="str">
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F104" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Select_Difficulties</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F74" s="1" t="str">
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F105" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Help_new_player</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F75" s="1" t="str">
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F106" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_CourierSelectionTitle</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F76" s="1" t="str">
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F107" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_PlayerNotReady</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F77" s="1" t="str">
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F108" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Feedback_Title</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F78" s="1" t="str">
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Feedback_Good</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F79" s="1" t="str">
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Feedback_Bad</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F80" s="1" t="str">
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Feedback_Placeholder</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F81" s="1" t="str">
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F112" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Feedback_Send</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F82" s="1" t="str">
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Feedback_Success</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F83" s="1" t="str">
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F114" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Feedback_Failure</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F84" s="1" t="str">
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_FishManPublish</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F85" s="1" t="str">
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_BugEmail</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F86" s="1" t="str">
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_DiscordLink</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F87" s="1" t="str">
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F118" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Difficult_0</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F88" s="1" t="str">
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F119" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Difficult_0_Description</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F89" s="1" t="str">
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F120" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Difficult_1</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F90" s="1" t="str">
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F121" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Difficult_1_Description</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F91" s="1" t="str">
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F122" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Difficult_2</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F92" s="1" t="str">
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Difficult_2_Description</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F93" s="1" t="str">
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F124" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Difficult_3</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F94" s="1" t="str">
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>lang_Difficult_3_Description</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C95" s="2" t="s">
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F126" s="1" t="str">
+        <f>CONCATENATE("lang_",A126)</f>
+        <v>lang_Difficult_4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F127" s="1" t="str">
+        <f>CONCATENATE("lang_",A127)</f>
+        <v>lang_Difficult_4_Description</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F95" s="1" t="str">
-        <f>CONCATENATE("lang_",A95)</f>
-        <v>lang_Difficult_4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F96" s="1" t="str">
-        <f>CONCATENATE("lang_",A96)</f>
-        <v>lang_Difficult_4_Description</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F97" s="1" t="str">
-        <f t="shared" ref="F97:F103" si="2">CONCATENATE("lang_",A97)</f>
+      <c r="C128" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F128" s="1" t="str">
+        <f t="shared" ref="F128:F134" si="2">CONCATENATE("lang_",A128)</f>
         <v>lang_Difficult_5</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F98" s="1" t="str">
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F129" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_5_Description</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F99" s="1" t="str">
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F130" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_6</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F100" s="1" t="str">
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F131" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_6_Description</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F101" s="1" t="str">
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F132" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_999</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F102" s="1" t="str">
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F133" s="1" t="str">
         <f t="shared" si="2"/>
         <v>lang_Difficult_999_Description</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F103" s="1" t="str">
-        <f>CONCATENATE("",A103)</f>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F134" s="1" t="str">
+        <f>CONCATENATE("",A134)</f>
         <v>UnitStatPanel_Primary_tip</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F104" s="1" t="str">
-        <f>CONCATENATE("",A104)</f>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F135" s="1" t="str">
+        <f>CONCATENATE("",A135)</f>
         <v>UnitStatPanel_Prop_PerLevel</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="F105" s="1" t="str">
-        <f t="shared" ref="F105:F141" si="3">CONCATENATE("",A105)</f>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F136" s="1" t="str">
+        <f t="shared" ref="F136:F172" si="3">CONCATENATE("",A136)</f>
         <v>DOTA_HUD_Strength_Custom</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F106" s="1" t="str">
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F137" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_StrengthDetails_Custom</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F107" s="1" t="str">
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F138" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_StrengthDetails_Custom_Primary</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F108" s="1" t="str">
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F139" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_Agility_Custom</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F109" s="1" t="str">
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F140" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_AgilityDetails_Custom</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F110" s="1" t="str">
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F141" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_AgilityDetails_Custom_Primary</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F111" s="1" t="str">
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F142" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_Intellect_Custom</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F112" s="1" t="str">
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F143" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_IntellectDetails_Custom</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F113" s="1" t="str">
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F144" s="1" t="str">
         <f t="shared" si="3"/>
         <v>UnitStatPanel_IntellectDetails_Custom_Primary</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F114" s="1" t="str">
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F145" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_TotalDamagePercent</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F115" s="1" t="str">
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F146" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_PhysicalDamagePercent</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F116" s="1" t="str">
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F147" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_MagicalDamagePercent</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F117" s="1" t="str">
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F148" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_PureDamagePercent</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F118" s="1" t="str">
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F149" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_PhysicalArmor_Custom</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F119" s="1" t="str">
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F150" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_MagicalArmor_Custom</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="F120" s="1" t="str">
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F151" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Unit_Stats_Label_Outgoing</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F121" s="1" t="str">
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F152" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Unit_Stats_Label_Other</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F122" s="1" t="str">
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="F153" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IgnorePhysicalArmorPercent</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F123" s="1" t="str">
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F154" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IgnoreMagicalArmorPercent</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F124" s="1" t="str">
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F155" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_CooldownReduction</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F125" s="1" t="str">
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F156" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_EnergyRegen</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C126" s="2" t="s">
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F126" s="1" t="str">
+      <c r="C157" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F157" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_AttackCrit</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F127" s="1" t="str">
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F158" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_AttackCritDamage</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="F128" s="1" t="str">
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F159" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_SpellCrit</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F129" s="1" t="str">
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F160" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_SpellCritDamage</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="F130" s="1" t="str">
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F161" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IncomingTotalDamagePercent</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F131" s="1" t="str">
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="F162" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IncomingPhysicalDamagePercent</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="F132" s="1" t="str">
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F163" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IncomingMagicalDamagePercent</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F133" s="1" t="str">
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F164" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_IncomingPureDamagePercent</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="F134" s="1" t="str">
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F165" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_LifeSteal</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F135" s="1" t="str">
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F166" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_SpellLifeSteal</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F136" s="1" t="str">
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F167" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_ABILITYCASTRANGE</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F137" s="1" t="str">
+    <row r="168" spans="1:6">
+      <c r="A168" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F168" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_ABILITYCASTPOINT</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F138" s="1" t="str">
+    <row r="169" spans="1:6">
+      <c r="A169" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F169" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_ABILITYDURATION</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F139" s="1" t="str">
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F170" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_ABILITYCHANNELTIME</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F140" s="1" t="str">
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F171" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_ABILITYDAMAGE</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F141" s="1" t="str">
+    <row r="172" spans="1:6">
+      <c r="A172" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F172" s="1" t="str">
         <f t="shared" si="3"/>
         <v>DOTA_HUD_ABILITYCOOLDOWN</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F142" s="1" t="str">
-        <f t="shared" ref="F142:F165" si="4">CONCATENATE("lang_",A142)</f>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F173" s="1" t="str">
+        <f t="shared" ref="F173:F196" si="4">CONCATENATE("lang_",A173)</f>
         <v>lang_sellallitem</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F143" s="1" t="str">
+    <row r="174" spans="1:6">
+      <c r="A174" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F174" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_Buy2Bag</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F144" s="1" t="str">
+    <row r="175" spans="1:6">
+      <c r="A175" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F175" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_PublicBag</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F145" s="1" t="str">
+    <row r="176" spans="1:6">
+      <c r="A176" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F176" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_PersonBag</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F146" s="1" t="str">
+    <row r="177" spans="1:6">
+      <c r="A177" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F177" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_EquipCombine</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F147" s="1" t="str">
+    <row r="178" spans="1:6">
+      <c r="A178" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F178" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipConfrimCant</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F148" s="1" t="str">
+    <row r="179" spans="1:6">
+      <c r="A179" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F179" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipConfrim</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F149" s="1" t="str">
+    <row r="180" spans="1:6">
+      <c r="A180" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F180" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipConfrimDesc</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F150" s="1" t="str">
+    <row r="181" spans="1:6">
+      <c r="A181" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F181" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipRandom</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F151" s="1" t="str">
+    <row r="182" spans="1:6">
+      <c r="A182" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F182" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipNoAnimation</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F152" s="1" t="str">
+    <row r="183" spans="1:6">
+      <c r="A183" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F183" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_CombineEquipNoAnimationDesc</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F153" s="1" t="str">
+    <row r="184" spans="1:6">
+      <c r="A184" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="F184" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_GoldShop</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F154" s="1" t="str">
+    <row r="185" spans="1:6">
+      <c r="A185" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="F185" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_WoodShop</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="F155" s="1" t="str">
+    <row r="186" spans="1:6">
+      <c r="A186" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F186" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_RoundShop</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F156" s="1" t="str">
+    <row r="187" spans="1:6">
+      <c r="A187" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F187" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_RandomShop</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F157" s="1" t="str">
+    <row r="188" spans="1:6">
+      <c r="A188" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F188" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_RandomShopUnlock</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F158" s="1" t="str">
+    <row r="189" spans="1:6">
+      <c r="A189" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F189" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_RandomShopTime</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F159" s="1" t="str">
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F190" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_RandomShopRefresh</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F160" s="1" t="str">
+    <row r="191" spans="1:6">
+      <c r="A191" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F191" s="1" t="str">
         <f t="shared" si="4"/>
         <v>lang_Module_15s_Prize</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="F161" s="1" t="str">
-        <f t="shared" ref="F161:F166" si="5">CONCATENATE("lang_",A161)</f>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F192" s="1" t="str">
+        <f t="shared" ref="F192:F197" si="5">CONCATENATE("lang_",A192)</f>
         <v>lang_Notification_Plus_Auto_Gold</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F162" s="1" t="str">
+    <row r="193" spans="1:6">
+      <c r="A193" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F193" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Notification_Get_Item_from</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F163" s="1" t="str">
+    <row r="194" spans="1:6">
+      <c r="A194" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F194" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Notification_Interval_Prize_Gold</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F164" s="1" t="str">
+    <row r="195" spans="1:6">
+      <c r="A195" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F195" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Notification_Interval_Prize_Wood</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F165" s="1" t="str">
+    <row r="196" spans="1:6">
+      <c r="A196" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F196" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Notification_Interval_Prize_SoulCrystal</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="F166" s="1" t="str">
+    <row r="197" spans="1:6">
+      <c r="A197" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F197" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Welcome_to_our_game</v>
       </c>
@@ -5581,10 +6385,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -5595,10 +6399,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -5609,27 +6413,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="D3" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="422">
   <si>
     <t>主键</t>
   </si>
@@ -1236,6 +1236,24 @@
   </si>
   <si>
     <t>欢迎游玩&lt;font color='#ff8000'&gt;{s:string_from}&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>ArtifactTitle</t>
+  </si>
+  <si>
+    <t>神器栏</t>
+  </si>
+  <si>
+    <t>Artifact_Selector_title</t>
+  </si>
+  <si>
+    <t>选择一个神器</t>
+  </si>
+  <si>
+    <t>Artifact_Selector_No_Want</t>
+  </si>
+  <si>
+    <t>全都不要</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -1892,13 +1910,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2221,10 +2236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="F197" sqref="F197:F200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -2232,7 +2247,7 @@
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
     <col min="3" max="4" width="27.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="32.5833333333333" style="1" customWidth="1"/>
     <col min="7" max="16331" width="16.9166666666667" style="1" customWidth="1"/>
     <col min="16332" max="16332" width="16.9166666666667" style="1"/>
@@ -2598,7 +2613,7 @@
         <v>52</v>
       </c>
       <c r="F18" s="1" t="str">
-        <f t="shared" ref="F18:F60" si="0">CONCATENATE("lang_",A18)</f>
+        <f t="shared" ref="F18:F61" si="0">CONCATENATE("lang_",A18)</f>
         <v>lang_MenuButton_setting</v>
       </c>
     </row>
@@ -3065,7 +3080,7 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3102,7 +3117,7 @@
         <v>104</v>
       </c>
       <c r="F42" s="1" t="str">
-        <f>CONCATENATE("lang_",A42)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Question_1</v>
       </c>
     </row>
@@ -3123,7 +3138,7 @@
         <v>106</v>
       </c>
       <c r="F43" s="1" t="str">
-        <f>CONCATENATE("lang_",A43)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Answer_1</v>
       </c>
     </row>
@@ -3144,7 +3159,7 @@
         <v>104</v>
       </c>
       <c r="F44" s="1" t="str">
-        <f>CONCATENATE("lang_",A44)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Question_2</v>
       </c>
     </row>
@@ -3165,7 +3180,7 @@
         <v>106</v>
       </c>
       <c r="F45" s="1" t="str">
-        <f>CONCATENATE("lang_",A45)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Answer_2</v>
       </c>
     </row>
@@ -3186,7 +3201,7 @@
         <v>104</v>
       </c>
       <c r="F46" s="1" t="str">
-        <f>CONCATENATE("lang_",A46)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Question_3</v>
       </c>
     </row>
@@ -3207,7 +3222,7 @@
         <v>106</v>
       </c>
       <c r="F47" s="1" t="str">
-        <f>CONCATENATE("lang_",A47)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Answer_3</v>
       </c>
     </row>
@@ -3228,7 +3243,7 @@
         <v>104</v>
       </c>
       <c r="F48" s="1" t="str">
-        <f>CONCATENATE("lang_",A48)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Question_4</v>
       </c>
     </row>
@@ -3249,7 +3264,7 @@
         <v>106</v>
       </c>
       <c r="F49" s="1" t="str">
-        <f>CONCATENATE("lang_",A49)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Answer_4</v>
       </c>
     </row>
@@ -3270,7 +3285,7 @@
         <v>104</v>
       </c>
       <c r="F50" s="1" t="str">
-        <f>CONCATENATE("lang_",A50)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Question_5</v>
       </c>
     </row>
@@ -3291,7 +3306,7 @@
         <v>106</v>
       </c>
       <c r="F51" s="1" t="str">
-        <f>CONCATENATE("lang_",A51)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Answer_5</v>
       </c>
     </row>
@@ -3312,7 +3327,7 @@
         <v>104</v>
       </c>
       <c r="F52" s="1" t="str">
-        <f>CONCATENATE("lang_",A52)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Question_6</v>
       </c>
     </row>
@@ -3333,7 +3348,7 @@
         <v>106</v>
       </c>
       <c r="F53" s="1" t="str">
-        <f>CONCATENATE("lang_",A53)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Answer_6</v>
       </c>
     </row>
@@ -3354,7 +3369,7 @@
         <v>104</v>
       </c>
       <c r="F54" s="1" t="str">
-        <f>CONCATENATE("lang_",A54)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Question_7</v>
       </c>
     </row>
@@ -3375,7 +3390,7 @@
         <v>106</v>
       </c>
       <c r="F55" s="1" t="str">
-        <f>CONCATENATE("lang_",A55)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Answer_7</v>
       </c>
     </row>
@@ -3396,7 +3411,7 @@
         <v>104</v>
       </c>
       <c r="F56" s="1" t="str">
-        <f>CONCATENATE("lang_",A56)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Question_8</v>
       </c>
     </row>
@@ -3417,7 +3432,7 @@
         <v>106</v>
       </c>
       <c r="F57" s="1" t="str">
-        <f>CONCATENATE("lang_",A57)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Answer_8</v>
       </c>
     </row>
@@ -3438,7 +3453,7 @@
         <v>104</v>
       </c>
       <c r="F58" s="1" t="str">
-        <f>CONCATENATE("lang_",A58)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Question_9</v>
       </c>
     </row>
@@ -3459,7 +3474,7 @@
         <v>106</v>
       </c>
       <c r="F59" s="1" t="str">
-        <f>CONCATENATE("lang_",A59)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Answer_9</v>
       </c>
     </row>
@@ -3480,7 +3495,7 @@
         <v>104</v>
       </c>
       <c r="F60" s="1" t="str">
-        <f>CONCATENATE("lang_",A60)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Question_10</v>
       </c>
     </row>
@@ -3501,7 +3516,7 @@
         <v>106</v>
       </c>
       <c r="F61" s="1" t="str">
-        <f>CONCATENATE("lang_",A61)</f>
+        <f t="shared" si="0"/>
         <v>lang_FAQ_Answer_10</v>
       </c>
     </row>
@@ -6252,7 +6267,7 @@
         <v>395</v>
       </c>
       <c r="F192" s="1" t="str">
-        <f t="shared" ref="F192:F197" si="5">CONCATENATE("lang_",A192)</f>
+        <f t="shared" ref="F192:F200" si="5">CONCATENATE("lang_",A192)</f>
         <v>lang_Notification_Plus_Auto_Gold</v>
       </c>
     </row>
@@ -6359,6 +6374,69 @@
       <c r="F197" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Welcome_to_our_game</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F198" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_ArtifactTitle</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F199" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_Artifact_Selector_title</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F200" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_Artifact_Selector_No_Want</v>
       </c>
     </row>
   </sheetData>
@@ -6385,10 +6463,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -6399,10 +6477,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -6413,27 +6491,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -827,13 +827,13 @@
     <t>45回合&lt;br&gt;每回合结束恢复30%的蓝量&lt;br&gt;解锁挑战怪物技能&lt;br&gt;解锁普通怪物的技能&lt;br&gt;解锁Boss技能&lt;br&gt;解锁通关掉落符石（每日首次双倍）&lt;br&gt;每回合对伤害种类有要求&lt;br&gt;普通怪100%获得变异技能</t>
   </si>
   <si>
-    <t>Difficult_999</t>
+    <t>Difficult_1000</t>
   </si>
   <si>
     <t>深渊炼狱</t>
   </si>
   <si>
-    <t>Difficult_999_Description</t>
+    <t>Difficult_1000_Description</t>
   </si>
   <si>
     <t>正常45回合，之后有额外的无尽回合，看看你的极限在哪里&lt;br&gt;每回合结束恢复20%的蓝量&lt;br&gt;解锁符石碎片掉落（每日首次通关双倍）</t>
@@ -2238,8 +2238,8 @@
   <sheetPr/>
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="F197" sqref="F197:F200"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="F132" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lang_Difficult_999</v>
+        <v>lang_Difficult_1000</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="F133" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>lang_Difficult_999_Description</v>
+        <v>lang_Difficult_1000_Description</v>
       </c>
     </row>
     <row r="134" spans="1:6">

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="450">
   <si>
     <t>主键</t>
   </si>
@@ -1254,6 +1254,90 @@
   </si>
   <si>
     <t>全都不要</t>
+  </si>
+  <si>
+    <t>hud_bp_active</t>
+  </si>
+  <si>
+    <t>启用</t>
+  </si>
+  <si>
+    <t>hud_bp_buy_exp</t>
+  </si>
+  <si>
+    <t>购买经验</t>
+  </si>
+  <si>
+    <t>hud_bp_title</t>
+  </si>
+  <si>
+    <t>战令通行证</t>
+  </si>
+  <si>
+    <t>hud_bp_season</t>
+  </si>
+  <si>
+    <t>第{d:bp_season}季</t>
+  </si>
+  <si>
+    <t>hud_bp_reward</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>hud_bp_task</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>hud_bp_deadline</t>
+  </si>
+  <si>
+    <t>距离结束还有:{t:d:t:countdown_time}</t>
+  </si>
+  <si>
+    <t>hud_bp_task_type_1</t>
+  </si>
+  <si>
+    <t>每周任务</t>
+  </si>
+  <si>
+    <t>hud_bp_task_type_2</t>
+  </si>
+  <si>
+    <t>每日任务</t>
+  </si>
+  <si>
+    <t>hud_bp_task_refresh_time</t>
+  </si>
+  <si>
+    <t>距离刷新还有:{t:d:t:countdown_time}</t>
+  </si>
+  <si>
+    <t>hud_bp_goto_current_level</t>
+  </si>
+  <si>
+    <t>跳转至当前等级</t>
+  </si>
+  <si>
+    <t>hud_bp_task_vip</t>
+  </si>
+  <si>
+    <t>高级版战令专属</t>
+  </si>
+  <si>
+    <t>hud_bp_charge_courier</t>
+  </si>
+  <si>
+    <t>信使兑换</t>
+  </si>
+  <si>
+    <t>hud_bp_charge_skin</t>
+  </si>
+  <si>
+    <t>皮肤兑换</t>
   </si>
   <si>
     <t>字段注释</t>
@@ -2236,10 +2320,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -6267,7 +6351,7 @@
         <v>395</v>
       </c>
       <c r="F192" s="1" t="str">
-        <f t="shared" ref="F192:F200" si="5">CONCATENATE("lang_",A192)</f>
+        <f t="shared" ref="F192:F214" si="5">CONCATENATE("lang_",A192)</f>
         <v>lang_Notification_Plus_Auto_Gold</v>
       </c>
     </row>
@@ -6437,6 +6521,300 @@
       <c r="F200" s="1" t="str">
         <f t="shared" si="5"/>
         <v>lang_Artifact_Selector_No_Want</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F201" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_active</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F202" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_buy_exp</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F203" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_title</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F204" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_season</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F205" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_reward</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F206" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_task</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F207" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_deadline</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F208" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_task_type_1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F209" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_task_type_2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F210" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_task_refresh_time</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F211" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_goto_current_level</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F212" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_task_vip</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F213" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_charge_courier</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F214" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_hud_bp_charge_skin</v>
       </c>
     </row>
   </sheetData>
@@ -6463,10 +6841,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -6477,10 +6855,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -6491,27 +6869,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$294</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$296</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="455">
   <si>
     <t>主键</t>
   </si>
@@ -1199,6 +1199,12 @@
     <t>15秒奖励</t>
   </si>
   <si>
+    <t>Module_Round_Result</t>
+  </si>
+  <si>
+    <t>回合结算</t>
+  </si>
+  <si>
     <t>Notification_Plus_Auto_Gold</t>
   </si>
   <si>
@@ -1214,19 +1220,19 @@
     <t>{s:player_name}通过[{s:string_from}]获得了{s:item_get}</t>
   </si>
   <si>
-    <t>Notification_Interval_Prize_Gold</t>
+    <t>Notification_Prize_Gold</t>
   </si>
   <si>
     <t>[{s:string_from}]:您获得了{s:coin_gold}</t>
   </si>
   <si>
-    <t>Notification_Interval_Prize_Wood</t>
+    <t>Notification_Prize_Wood</t>
   </si>
   <si>
     <t>[{s:string_from}]:您获得了{s:coin_wood}</t>
   </si>
   <si>
-    <t>Notification_Interval_Prize_SoulCrystal</t>
+    <t>Notification_Prize_SoulCrystal</t>
   </si>
   <si>
     <t>[{s:string_from}]:您获得了{s:coin_soulcrystal}</t>
@@ -1236,6 +1242,15 @@
   </si>
   <si>
     <t>欢迎游玩&lt;font color='#ff8000'&gt;{s:string_from}&lt;/font&gt;</t>
+  </si>
+  <si>
+    <t>Notification_Round_Result</t>
+  </si>
+  <si>
+    <t>{s:player_name}在第{s:roundindex}回合战斗{s:roundresult}，天梯分数{s:scorechange}。</t>
+  </si>
+  <si>
+    <t>{s:player_name}在{s:roundindex}回合战斗{s:roundresult}，天梯分数{s:scorechange}。</t>
   </si>
   <si>
     <t>ArtifactTitle</t>
@@ -2320,10 +2335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -6339,28 +6354,28 @@
         <v>393</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="D192" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F192" s="1" t="str">
-        <f t="shared" ref="F192:F214" si="5">CONCATENATE("lang_",A192)</f>
-        <v>lang_Notification_Plus_Auto_Gold</v>
+        <f t="shared" si="4"/>
+        <v>lang_Module_Round_Result</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>397</v>
@@ -6372,8 +6387,8 @@
         <v>397</v>
       </c>
       <c r="F193" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_Notification_Get_Item_from</v>
+        <f t="shared" si="4"/>
+        <v>lang_Notification_Plus_Auto_Gold</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -6381,7 +6396,7 @@
         <v>398</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>399</v>
@@ -6393,8 +6408,8 @@
         <v>399</v>
       </c>
       <c r="F194" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_Notification_Interval_Prize_Gold</v>
+        <f t="shared" ref="F194:F199" si="5">CONCATENATE("lang_",A194)</f>
+        <v>lang_Notification_Get_Item_from</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -6402,7 +6417,7 @@
         <v>400</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>401</v>
@@ -6415,7 +6430,7 @@
       </c>
       <c r="F195" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>lang_Notification_Interval_Prize_Wood</v>
+        <v>lang_Notification_Prize_Gold</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6423,7 +6438,7 @@
         <v>402</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>403</v>
@@ -6436,7 +6451,7 @@
       </c>
       <c r="F196" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>lang_Notification_Interval_Prize_SoulCrystal</v>
+        <v>lang_Notification_Prize_Wood</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6444,7 +6459,7 @@
         <v>404</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>405</v>
@@ -6457,7 +6472,7 @@
       </c>
       <c r="F197" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>lang_Welcome_to_our_game</v>
+        <v>lang_Notification_Prize_SoulCrystal</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6465,7 +6480,7 @@
         <v>406</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>96</v>
+        <v>396</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>407</v>
@@ -6478,7 +6493,7 @@
       </c>
       <c r="F198" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>lang_ArtifactTitle</v>
+        <v>lang_Welcome_to_our_game</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6486,334 +6501,376 @@
         <v>408</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>96</v>
+        <v>396</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F199" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>lang_Artifact_Selector_title</v>
+        <v>lang_Notification_Round_Result</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F200" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_Artifact_Selector_No_Want</v>
+        <f t="shared" ref="F200:F216" si="6">CONCATENATE("lang_",A200)</f>
+        <v>lang_ArtifactTitle</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F201" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_active</v>
+        <f t="shared" si="6"/>
+        <v>lang_Artifact_Selector_title</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F202" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_buy_exp</v>
+        <f t="shared" si="6"/>
+        <v>lang_Artifact_Selector_No_Want</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F203" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_title</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_active</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F204" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_season</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_buy_exp</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F205" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_reward</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_title</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F206" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_task</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_season</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F207" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_deadline</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_reward</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>427</v>
+      <c r="C208" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="F208" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_task_type_1</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_task</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>429</v>
+      <c r="C209" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="F209" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_task_type_2</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_deadline</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F210" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_task_refresh_time</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_task_type_1</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F211" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_goto_current_level</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_task_type_2</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F212" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_task_vip</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_task_refresh_time</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F213" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_hud_bp_charge_courier</v>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_goto_current_level</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F214" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_task_vip</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F215" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_charge_courier</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F216" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>lang_hud_bp_charge_skin</v>
       </c>
     </row>
@@ -6841,10 +6898,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -6855,10 +6912,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -6869,27 +6926,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D3" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$296</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$298</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="459">
   <si>
     <t>主键</t>
   </si>
@@ -1205,6 +1205,12 @@
     <t>回合结算</t>
   </si>
   <si>
+    <t>Module_BattleRecordTitle</t>
+  </si>
+  <si>
+    <t>对战记录</t>
+  </si>
+  <si>
     <t>Notification_Plus_Auto_Gold</t>
   </si>
   <si>
@@ -1251,6 +1257,12 @@
   </si>
   <si>
     <t>{s:player_name}在{s:roundindex}回合战斗{s:roundresult}，天梯分数{s:scorechange}。</t>
+  </si>
+  <si>
+    <t>Notification_Round_ItemPrize</t>
+  </si>
+  <si>
+    <t>{s:player_name}在第{s:roundindex}回合战斗{s:roundresult}，奖励存档道具{s:item_get}。</t>
   </si>
   <si>
     <t>ArtifactTitle</t>
@@ -2335,10 +2347,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F216"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
@@ -6375,28 +6387,28 @@
         <v>395</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="D193" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F193" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>lang_Notification_Plus_Auto_Gold</v>
+        <v>lang_Module_BattleRecordTitle</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>399</v>
@@ -6408,8 +6420,8 @@
         <v>399</v>
       </c>
       <c r="F194" s="1" t="str">
-        <f t="shared" ref="F194:F199" si="5">CONCATENATE("lang_",A194)</f>
-        <v>lang_Notification_Get_Item_from</v>
+        <f t="shared" si="4"/>
+        <v>lang_Notification_Plus_Auto_Gold</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -6417,7 +6429,7 @@
         <v>400</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>401</v>
@@ -6429,8 +6441,8 @@
         <v>401</v>
       </c>
       <c r="F195" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>lang_Notification_Prize_Gold</v>
+        <f t="shared" ref="F195:F201" si="5">CONCATENATE("lang_",A195)</f>
+        <v>lang_Notification_Get_Item_from</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6438,7 +6450,7 @@
         <v>402</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>403</v>
@@ -6451,7 +6463,7 @@
       </c>
       <c r="F196" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>lang_Notification_Prize_Wood</v>
+        <v>lang_Notification_Prize_Gold</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6459,7 +6471,7 @@
         <v>404</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>405</v>
@@ -6472,7 +6484,7 @@
       </c>
       <c r="F197" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>lang_Notification_Prize_SoulCrystal</v>
+        <v>lang_Notification_Prize_Wood</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6480,7 +6492,7 @@
         <v>406</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>407</v>
@@ -6493,7 +6505,7 @@
       </c>
       <c r="F198" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>lang_Welcome_to_our_game</v>
+        <v>lang_Notification_Prize_SoulCrystal</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6501,31 +6513,31 @@
         <v>408</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>409</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F199" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>lang_Notification_Round_Result</v>
+        <v>lang_Welcome_to_our_game</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>412</v>
@@ -6534,8 +6546,8 @@
         <v>412</v>
       </c>
       <c r="F200" s="1" t="str">
-        <f t="shared" ref="F200:F216" si="6">CONCATENATE("lang_",A200)</f>
-        <v>lang_ArtifactTitle</v>
+        <f t="shared" si="5"/>
+        <v>lang_Notification_Round_Result</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6543,7 +6555,7 @@
         <v>413</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>96</v>
+        <v>398</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>414</v>
@@ -6555,8 +6567,8 @@
         <v>414</v>
       </c>
       <c r="F201" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>lang_Artifact_Selector_title</v>
+        <f t="shared" si="5"/>
+        <v>lang_Notification_Round_ItemPrize</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -6576,8 +6588,8 @@
         <v>416</v>
       </c>
       <c r="F202" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>lang_Artifact_Selector_No_Want</v>
+        <f t="shared" ref="F202:F218" si="6">CONCATENATE("lang_",A202)</f>
+        <v>lang_ArtifactTitle</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6585,7 +6597,7 @@
         <v>417</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>418</v>
@@ -6598,7 +6610,7 @@
       </c>
       <c r="F203" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_active</v>
+        <v>lang_Artifact_Selector_title</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6606,7 +6618,7 @@
         <v>419</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>420</v>
@@ -6619,7 +6631,7 @@
       </c>
       <c r="F204" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_buy_exp</v>
+        <v>lang_Artifact_Selector_No_Want</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6640,7 +6652,7 @@
       </c>
       <c r="F205" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_title</v>
+        <v>lang_hud_bp_active</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6661,7 +6673,7 @@
       </c>
       <c r="F206" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_season</v>
+        <v>lang_hud_bp_buy_exp</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6682,7 +6694,7 @@
       </c>
       <c r="F207" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_reward</v>
+        <v>lang_hud_bp_title</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6703,7 +6715,7 @@
       </c>
       <c r="F208" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_task</v>
+        <v>lang_hud_bp_season</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6724,7 +6736,7 @@
       </c>
       <c r="F209" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_deadline</v>
+        <v>lang_hud_bp_reward</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6734,18 +6746,18 @@
       <c r="B210" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C210" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="D210" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E210" s="1" t="s">
+      <c r="E210" s="2" t="s">
         <v>432</v>
       </c>
       <c r="F210" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_task_type_1</v>
+        <v>lang_hud_bp_task</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6755,18 +6767,18 @@
       <c r="B211" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C211" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="D211" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E211" s="1" t="s">
+      <c r="E211" s="2" t="s">
         <v>434</v>
       </c>
       <c r="F211" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_task_type_2</v>
+        <v>lang_hud_bp_deadline</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6787,7 +6799,7 @@
       </c>
       <c r="F212" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_task_refresh_time</v>
+        <v>lang_hud_bp_task_type_1</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6808,7 +6820,7 @@
       </c>
       <c r="F213" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_goto_current_level</v>
+        <v>lang_hud_bp_task_type_2</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6829,7 +6841,7 @@
       </c>
       <c r="F214" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_task_vip</v>
+        <v>lang_hud_bp_task_refresh_time</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6850,7 +6862,7 @@
       </c>
       <c r="F215" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>lang_hud_bp_charge_courier</v>
+        <v>lang_hud_bp_goto_current_level</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6870,6 +6882,48 @@
         <v>444</v>
       </c>
       <c r="F216" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_task_vip</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F217" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>lang_hud_bp_charge_courier</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F218" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_charge_skin</v>
       </c>
@@ -6898,10 +6952,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -6912,10 +6966,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -6926,27 +6980,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D3" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>

--- a/code/excels/kvConfig/lang_config.xlsx
+++ b/code/excels/kvConfig/lang_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="param" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$298</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$E$304</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="474">
   <si>
     <t>主键</t>
   </si>
@@ -1263,6 +1263,51 @@
   </si>
   <si>
     <t>{s:player_name}在第{s:roundindex}回合战斗{s:roundresult}，奖励存档道具{s:item_get}。</t>
+  </si>
+  <si>
+    <t>Round_record_des1_1</t>
+  </si>
+  <si>
+    <t>回合记录</t>
+  </si>
+  <si>
+    <t>本轮天梯积分赌注:&lt;font color='#f80606'&gt;{s:battlescore}&lt;/font&gt;。</t>
+  </si>
+  <si>
+    <t>本轮天梯积分赌注:{s:battlescore}。</t>
+  </si>
+  <si>
+    <t>Round_record_des2_1</t>
+  </si>
+  <si>
+    <t>挑战胜利可随机获得1-2个装备宝箱。</t>
+  </si>
+  <si>
+    <t>Round_record_des3_1</t>
+  </si>
+  <si>
+    <t>开战前可加倍天梯积分的赌注。</t>
+  </si>
+  <si>
+    <t>Round_record_des1_2</t>
+  </si>
+  <si>
+    <t>本轮胜利后所有参战英雄获得熟练度:&lt;font color='#f80606'&gt;{s:heroexp}&lt;/font&gt;。</t>
+  </si>
+  <si>
+    <t>本轮胜利后所有参战英雄获得熟练度:{s:heroexp}。</t>
+  </si>
+  <si>
+    <t>Round_record_des2_2</t>
+  </si>
+  <si>
+    <t>Round_record_des3_2</t>
+  </si>
+  <si>
+    <t>注意：挑战失败对信使造成&lt;font color='#f80606'&gt;{s:damage}&lt;/font&gt;点伤害。</t>
+  </si>
+  <si>
+    <t>注意：挑战失败对信使造成{s:damage}点伤害。</t>
   </si>
   <si>
     <t>ArtifactTitle</t>
@@ -2347,17 +2392,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:F224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="37" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="27.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="32.5833333333333" style="1" customWidth="1"/>
     <col min="7" max="16331" width="16.9166666666667" style="1" customWidth="1"/>
@@ -6441,7 +6487,7 @@
         <v>401</v>
       </c>
       <c r="F195" s="1" t="str">
-        <f t="shared" ref="F195:F201" si="5">CONCATENATE("lang_",A195)</f>
+        <f t="shared" ref="F195:F207" si="5">CONCATENATE("lang_",A195)</f>
         <v>lang_Notification_Get_Item_from</v>
       </c>
     </row>
@@ -6576,354 +6622,480 @@
         <v>415</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>96</v>
+        <v>416</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F202" s="1" t="str">
-        <f t="shared" ref="F202:F218" si="6">CONCATENATE("lang_",A202)</f>
-        <v>lang_ArtifactTitle</v>
+        <f t="shared" si="5"/>
+        <v>lang_Round_record_des1_1</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F203" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_Round_record_des2_1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F204" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_Round_record_des3_1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F205" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_Round_record_des1_2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F206" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_Round_record_des2_2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F207" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>lang_Round_record_des3_2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="F203" s="1" t="str">
+      <c r="C208" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F208" s="1" t="str">
+        <f t="shared" ref="F208:F224" si="6">CONCATENATE("lang_",A208)</f>
+        <v>lang_ArtifactTitle</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="F209" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_Artifact_Selector_title</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
-      <c r="A204" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B204" s="1" t="s">
+    <row r="210" spans="1:6">
+      <c r="A210" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F204" s="1" t="str">
+      <c r="C210" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F210" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_Artifact_Selector_No_Want</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
-      <c r="A205" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B205" s="1" t="s">
+    <row r="211" spans="1:6">
+      <c r="A211" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="F205" s="1" t="str">
+      <c r="C211" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F211" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_active</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
-      <c r="A206" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B206" s="1" t="s">
+    <row r="212" spans="1:6">
+      <c r="A212" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F206" s="1" t="str">
+      <c r="C212" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F212" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_buy_exp</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B207" s="1" t="s">
+    <row r="213" spans="1:6">
+      <c r="A213" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F207" s="1" t="str">
+      <c r="C213" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F213" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_title</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B208" s="1" t="s">
+    <row r="214" spans="1:6">
+      <c r="A214" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="F208" s="1" t="str">
+      <c r="C214" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F214" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_season</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
-      <c r="A209" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B209" s="1" t="s">
+    <row r="215" spans="1:6">
+      <c r="A215" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F209" s="1" t="str">
+      <c r="C215" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F215" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_reward</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
-      <c r="A210" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B210" s="1" t="s">
+    <row r="216" spans="1:6">
+      <c r="A216" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="F210" s="1" t="str">
+      <c r="C216" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F216" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_task</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
-      <c r="A211" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B211" s="1" t="s">
+    <row r="217" spans="1:6">
+      <c r="A217" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F211" s="1" t="str">
+      <c r="C217" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F217" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_deadline</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B212" s="1" t="s">
+    <row r="218" spans="1:6">
+      <c r="A218" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F212" s="1" t="str">
+      <c r="C218" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F218" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_task_type_1</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B213" s="1" t="s">
+    <row r="219" spans="1:6">
+      <c r="A219" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F213" s="1" t="str">
+      <c r="C219" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F219" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_task_type_2</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B214" s="1" t="s">
+    <row r="220" spans="1:6">
+      <c r="A220" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F214" s="1" t="str">
+      <c r="C220" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F220" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_task_refresh_time</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B215" s="1" t="s">
+    <row r="221" spans="1:6">
+      <c r="A221" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F215" s="1" t="str">
+      <c r="C221" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F221" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_goto_current_level</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="B216" s="1" t="s">
+    <row r="222" spans="1:6">
+      <c r="A222" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F216" s="1" t="str">
+      <c r="C222" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F222" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_task_vip</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B217" s="1" t="s">
+    <row r="223" spans="1:6">
+      <c r="A223" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F217" s="1" t="str">
+      <c r="C223" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F223" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_charge_courier</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B218" s="1" t="s">
+    <row r="224" spans="1:6">
+      <c r="A224" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="F218" s="1" t="str">
+      <c r="C224" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F224" s="1" t="str">
         <f t="shared" si="6"/>
         <v>lang_hud_bp_charge_skin</v>
       </c>
@@ -6952,10 +7124,10 @@
   <sheetData>
     <row r="1" ht="15.5" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -6966,10 +7138,10 @@
     </row>
     <row r="2" ht="15.5" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -6980,27 +7152,27 @@
     </row>
     <row r="3" ht="15.5" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="D3" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
